--- a/data/npcs.xlsx
+++ b/data/npcs.xlsx
@@ -735,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -881,7 +881,7 @@
         <v>4.8</v>
       </c>
       <c r="G3" s="13">
-        <f>G2*Q3</f>
+        <f t="shared" ref="G3:G34" si="0">G2*Q3</f>
         <v>2.4</v>
       </c>
       <c r="H3" s="13">
@@ -908,11 +908,11 @@
         <v>13</v>
       </c>
       <c r="O3" s="22">
-        <f t="shared" ref="O3:P5" si="0">O2</f>
+        <f t="shared" ref="O3:P5" si="1">O2</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="P3" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="Q3" s="22">
@@ -943,7 +943,7 @@
         <v>5.76</v>
       </c>
       <c r="G4" s="13">
-        <f>G3*Q4</f>
+        <f t="shared" si="0"/>
         <v>2.88</v>
       </c>
       <c r="H4" s="13">
@@ -970,11 +970,11 @@
         <v>13</v>
       </c>
       <c r="O4" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P4" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="Q4" s="22">
@@ -993,27 +993,27 @@
         <v>16</v>
       </c>
       <c r="D5" s="13">
-        <f t="shared" ref="D5:D16" si="1">D4*P5</f>
+        <f t="shared" ref="D5:D16" si="2">D4*P5</f>
         <v>3.90625</v>
       </c>
       <c r="E5" s="13">
-        <f t="shared" ref="E5:E16" si="2">E4*P5</f>
+        <f t="shared" ref="E5:E16" si="3">E4*P5</f>
         <v>1.953125</v>
       </c>
       <c r="F5" s="13">
-        <f>F4*Q5</f>
+        <f t="shared" ref="F5:F36" si="4">F4*Q5</f>
         <v>6.9119999999999999</v>
       </c>
       <c r="G5" s="13">
-        <f>G4*Q5</f>
+        <f t="shared" si="0"/>
         <v>3.456</v>
       </c>
       <c r="H5" s="13">
-        <f t="shared" ref="H5:H31" si="3">H4*O5</f>
+        <f t="shared" ref="H5:H31" si="5">H4*O5</f>
         <v>13.310000000000002</v>
       </c>
       <c r="I5" s="13">
-        <f t="shared" ref="I5:I31" si="4">I4*O5</f>
+        <f t="shared" ref="I5:I31" si="6">I4*O5</f>
         <v>26.620000000000005</v>
       </c>
       <c r="J5" s="13">
@@ -1032,11 +1032,11 @@
         <v>13</v>
       </c>
       <c r="O5" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P5" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="Q5" s="22">
@@ -1055,27 +1055,27 @@
         <v>21</v>
       </c>
       <c r="D6" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8828125</v>
       </c>
       <c r="E6" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.44140625</v>
       </c>
       <c r="F6" s="13">
-        <f>F5*Q6</f>
+        <f t="shared" si="4"/>
         <v>8.2943999999999996</v>
       </c>
       <c r="G6" s="13">
-        <f>G5*Q6</f>
+        <f t="shared" si="0"/>
         <v>4.1471999999999998</v>
       </c>
       <c r="H6" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14.641000000000004</v>
       </c>
       <c r="I6" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29.282000000000007</v>
       </c>
       <c r="J6" s="13">
@@ -1083,7 +1083,7 @@
         <v>8.7846000000000029</v>
       </c>
       <c r="K6" s="13">
-        <f t="shared" ref="K6:K31" si="5">K5*O6</f>
+        <f t="shared" ref="K6:K31" si="7">K5*O6</f>
         <v>19.033300000000008</v>
       </c>
       <c r="L6" s="13">
@@ -1094,15 +1094,15 @@
         <v>13</v>
       </c>
       <c r="O6" s="22">
-        <f t="shared" ref="O6:O61" si="6">O5</f>
+        <f t="shared" ref="O6:O61" si="8">O5</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="P6" s="22">
-        <f t="shared" ref="P6:P61" si="7">P5</f>
+        <f t="shared" ref="P6:P61" si="9">P5</f>
         <v>1.25</v>
       </c>
       <c r="Q6" s="22">
-        <f t="shared" ref="Q6:Q61" si="8">Q5</f>
+        <f t="shared" ref="Q6:Q61" si="10">Q5</f>
         <v>1.2</v>
       </c>
     </row>
@@ -1117,53 +1117,53 @@
         <v>26</v>
       </c>
       <c r="D7" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.859375</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9296875</v>
       </c>
       <c r="F7" s="13">
-        <f>F6*Q7</f>
+        <f t="shared" si="4"/>
         <v>9.9532799999999995</v>
       </c>
       <c r="G7" s="13">
-        <f>G6*Q7</f>
+        <f t="shared" si="0"/>
         <v>4.9766399999999997</v>
       </c>
       <c r="H7" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.105100000000004</v>
       </c>
       <c r="I7" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32.210200000000007</v>
       </c>
       <c r="J7" s="13">
-        <f t="shared" ref="J7:J31" si="9">J6*O7</f>
+        <f t="shared" ref="J7:J31" si="11">J6*O7</f>
         <v>9.6630600000000033</v>
       </c>
       <c r="K7" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20.936630000000012</v>
       </c>
       <c r="L7" s="13">
-        <f t="shared" ref="L7:L31" si="10">L6*O7</f>
+        <f t="shared" ref="L7:L31" si="12">L6*O7</f>
         <v>2.9282000000000012</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O7" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P7" s="22">
         <v>1.2</v>
       </c>
       <c r="Q7" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1178,54 +1178,54 @@
         <v>31</v>
       </c>
       <c r="D8" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.03125</v>
       </c>
       <c r="E8" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.515625</v>
       </c>
       <c r="F8" s="13">
-        <f>F7*Q8</f>
+        <f t="shared" si="4"/>
         <v>11.943935999999999</v>
       </c>
       <c r="G8" s="13">
-        <f>G7*Q8</f>
+        <f t="shared" si="0"/>
         <v>5.9719679999999995</v>
       </c>
       <c r="H8" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17.715610000000005</v>
       </c>
       <c r="I8" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35.43122000000001</v>
       </c>
       <c r="J8" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10.629366000000005</v>
       </c>
       <c r="K8" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23.030293000000015</v>
       </c>
       <c r="L8" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.2210200000000015</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O8" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P8" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q8" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1240,54 +1240,54 @@
         <v>36</v>
       </c>
       <c r="D9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4375</v>
       </c>
       <c r="E9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.21875</v>
       </c>
       <c r="F9" s="13">
-        <f>F8*Q9</f>
+        <f t="shared" si="4"/>
         <v>14.332723199999998</v>
       </c>
       <c r="G9" s="13">
-        <f>G8*Q9</f>
+        <f t="shared" si="0"/>
         <v>7.1663615999999992</v>
       </c>
       <c r="H9" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19.487171000000007</v>
       </c>
       <c r="I9" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>38.974342000000014</v>
       </c>
       <c r="J9" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11.692302600000007</v>
       </c>
       <c r="K9" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25.333322300000017</v>
       </c>
       <c r="L9" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.5431220000000021</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O9" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P9" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q9" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1302,54 +1302,54 @@
         <v>41</v>
       </c>
       <c r="D10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.125</v>
       </c>
       <c r="E10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.0625</v>
       </c>
       <c r="F10" s="13">
-        <f>F9*Q10</f>
+        <f t="shared" si="4"/>
         <v>17.199267839999997</v>
       </c>
       <c r="G10" s="13">
-        <f>G9*Q10</f>
+        <f t="shared" si="0"/>
         <v>8.5996339199999987</v>
       </c>
       <c r="H10" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21.43588810000001</v>
       </c>
       <c r="I10" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>42.871776200000021</v>
       </c>
       <c r="J10" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12.861532860000008</v>
       </c>
       <c r="K10" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>27.866654530000019</v>
       </c>
       <c r="L10" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.8974342000000028</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O10" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P10" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q10" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1364,54 +1364,54 @@
         <v>46</v>
       </c>
       <c r="D11" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.15</v>
       </c>
       <c r="E11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0750000000000002</v>
       </c>
       <c r="F11" s="13">
-        <f>F10*Q11</f>
+        <f t="shared" si="4"/>
         <v>20.639121407999998</v>
       </c>
       <c r="G11" s="13">
-        <f>G10*Q11</f>
+        <f t="shared" si="0"/>
         <v>10.319560703999999</v>
       </c>
       <c r="H11" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23.579476910000015</v>
       </c>
       <c r="I11" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>47.158953820000029</v>
       </c>
       <c r="J11" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14.147686146000009</v>
       </c>
       <c r="K11" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>30.653319983000024</v>
       </c>
       <c r="L11" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.2871776200000031</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O11" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P11" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q11" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1426,39 +1426,39 @@
         <v>51</v>
       </c>
       <c r="D12" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.58</v>
       </c>
       <c r="E12" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.29</v>
       </c>
       <c r="F12" s="20">
-        <f>F11*Q12</f>
+        <f t="shared" si="4"/>
         <v>24.766945689599996</v>
       </c>
       <c r="G12" s="20">
-        <f>G11*Q12</f>
+        <f t="shared" si="0"/>
         <v>12.383472844799998</v>
       </c>
       <c r="H12" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25.701629831900018</v>
       </c>
       <c r="I12" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>51.403259663800036</v>
       </c>
       <c r="J12" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15.420977899140011</v>
       </c>
       <c r="K12" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>33.412118781470028</v>
       </c>
       <c r="L12" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.6730236058000036</v>
       </c>
       <c r="M12" s="19" t="s">
@@ -1468,11 +1468,11 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="P12" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q12" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1487,54 +1487,54 @@
         <v>56</v>
       </c>
       <c r="D13" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.495999999999999</v>
       </c>
       <c r="E13" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.7479999999999993</v>
       </c>
       <c r="F13" s="20">
-        <f>F12*Q13</f>
+        <f t="shared" si="4"/>
         <v>29.720334827519995</v>
       </c>
       <c r="G13" s="20">
-        <f>G12*Q13</f>
+        <f t="shared" si="0"/>
         <v>14.860167413759998</v>
       </c>
       <c r="H13" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28.014776516771022</v>
       </c>
       <c r="I13" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>56.029553033542044</v>
       </c>
       <c r="J13" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16.808865910062615</v>
       </c>
       <c r="K13" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>36.419209471802333</v>
       </c>
       <c r="L13" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.0935957303220043</v>
       </c>
       <c r="M13" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O13" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="P13" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q13" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1549,54 +1549,54 @@
         <v>61</v>
       </c>
       <c r="D14" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.995199999999997</v>
       </c>
       <c r="E14" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.497599999999998</v>
       </c>
       <c r="F14" s="20">
-        <f>F13*Q14</f>
+        <f t="shared" si="4"/>
         <v>35.664401793023991</v>
       </c>
       <c r="G14" s="20">
-        <f>G13*Q14</f>
+        <f t="shared" si="0"/>
         <v>17.832200896511996</v>
       </c>
       <c r="H14" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>30.536106403280417</v>
       </c>
       <c r="I14" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>61.072212806560835</v>
       </c>
       <c r="J14" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18.321663841968252</v>
       </c>
       <c r="K14" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>39.696938324264543</v>
       </c>
       <c r="L14" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.5520193460509848</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O14" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="P14" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q14" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1611,54 +1611,54 @@
         <v>66</v>
       </c>
       <c r="D15" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.194239999999997</v>
       </c>
       <c r="E15" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.597119999999999</v>
       </c>
       <c r="F15" s="20">
-        <f>F14*Q15</f>
+        <f t="shared" si="4"/>
         <v>42.797282151628785</v>
       </c>
       <c r="G15" s="20">
-        <f>G14*Q15</f>
+        <f t="shared" si="0"/>
         <v>21.398641075814393</v>
       </c>
       <c r="H15" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>33.284355979575658</v>
       </c>
       <c r="I15" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>66.568711959151315</v>
       </c>
       <c r="J15" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.970613587745397</v>
       </c>
       <c r="K15" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43.269662773448353</v>
       </c>
       <c r="L15" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.0517010871955739</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O15" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="P15" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q15" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1673,54 +1673,54 @@
         <v>71</v>
       </c>
       <c r="D16" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.233087999999995</v>
       </c>
       <c r="E16" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.116543999999998</v>
       </c>
       <c r="F16" s="20">
-        <f>F15*Q16</f>
+        <f t="shared" si="4"/>
         <v>51.356738581954538</v>
       </c>
       <c r="G16" s="20">
-        <f>G15*Q16</f>
+        <f t="shared" si="0"/>
         <v>25.678369290977269</v>
       </c>
       <c r="H16" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36.279948017737468</v>
       </c>
       <c r="I16" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>72.559896035474935</v>
       </c>
       <c r="J16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21.767968810642486</v>
       </c>
       <c r="K16" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>47.163932423058711</v>
       </c>
       <c r="L16" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.5963541850431762</v>
       </c>
       <c r="M16" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O16" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="P16" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q16" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1735,54 +1735,54 @@
         <v>76</v>
       </c>
       <c r="D17" s="20">
-        <f t="shared" ref="D17:D31" si="11">D16*P17</f>
+        <f t="shared" ref="D17:D31" si="13">D16*P17</f>
         <v>36.279705599999993</v>
       </c>
       <c r="E17" s="20">
-        <f t="shared" ref="E17:E31" si="12">E16*P17</f>
+        <f t="shared" ref="E17:E31" si="14">E16*P17</f>
         <v>18.139852799999996</v>
       </c>
       <c r="F17" s="20">
-        <f>F16*Q17</f>
+        <f t="shared" si="4"/>
         <v>61.628086298345444</v>
       </c>
       <c r="G17" s="20">
-        <f>G16*Q17</f>
+        <f t="shared" si="0"/>
         <v>30.814043149172722</v>
       </c>
       <c r="H17" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>39.545143339333841</v>
       </c>
       <c r="I17" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>79.090286678667681</v>
       </c>
       <c r="J17" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>23.727086003600313</v>
       </c>
       <c r="K17" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>51.408686341134</v>
       </c>
       <c r="L17" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.1900260616970622</v>
       </c>
       <c r="M17" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O17" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="P17" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q17" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1797,54 +1797,54 @@
         <v>81</v>
       </c>
       <c r="D18" s="20">
+        <f t="shared" si="13"/>
+        <v>43.535646719999988</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" si="14"/>
+        <v>21.767823359999994</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="4"/>
+        <v>73.953703558014524</v>
+      </c>
+      <c r="G18" s="20">
+        <f t="shared" si="0"/>
+        <v>36.976851779007262</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="5"/>
+        <v>43.104206239873889</v>
+      </c>
+      <c r="I18" s="20">
+        <f t="shared" si="6"/>
+        <v>86.208412479747778</v>
+      </c>
+      <c r="J18" s="20">
         <f t="shared" si="11"/>
-        <v>43.535646719999988</v>
-      </c>
-      <c r="E18" s="20">
+        <v>25.862523743924342</v>
+      </c>
+      <c r="K18" s="20">
+        <f t="shared" si="7"/>
+        <v>56.035468111836067</v>
+      </c>
+      <c r="L18" s="20">
         <f t="shared" si="12"/>
-        <v>21.767823359999994</v>
-      </c>
-      <c r="F18" s="20">
-        <f>F17*Q18</f>
-        <v>73.953703558014524</v>
-      </c>
-      <c r="G18" s="20">
-        <f>G17*Q18</f>
-        <v>36.976851779007262</v>
-      </c>
-      <c r="H18" s="20">
-        <f t="shared" si="3"/>
-        <v>43.104206239873889</v>
-      </c>
-      <c r="I18" s="20">
-        <f t="shared" si="4"/>
-        <v>86.208412479747778</v>
-      </c>
-      <c r="J18" s="20">
-        <f t="shared" si="9"/>
-        <v>25.862523743924342</v>
-      </c>
-      <c r="K18" s="20">
-        <f t="shared" si="5"/>
-        <v>56.035468111836067</v>
-      </c>
-      <c r="L18" s="20">
-        <f t="shared" si="10"/>
         <v>7.8371284072497982</v>
       </c>
       <c r="M18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O18" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="P18" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q18" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1859,54 +1859,54 @@
         <v>86</v>
       </c>
       <c r="D19" s="20">
+        <f t="shared" si="13"/>
+        <v>52.242776063999983</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" si="14"/>
+        <v>26.121388031999992</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="4"/>
+        <v>88.744444269617432</v>
+      </c>
+      <c r="G19" s="20">
+        <f t="shared" si="0"/>
+        <v>44.372222134808716</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="5"/>
+        <v>46.983584801462541</v>
+      </c>
+      <c r="I19" s="20">
+        <f t="shared" si="6"/>
+        <v>93.967169602925082</v>
+      </c>
+      <c r="J19" s="20">
         <f t="shared" si="11"/>
-        <v>52.242776063999983</v>
-      </c>
-      <c r="E19" s="20">
+        <v>28.190150880877535</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="7"/>
+        <v>61.078660241901318</v>
+      </c>
+      <c r="L19" s="20">
         <f t="shared" si="12"/>
-        <v>26.121388031999992</v>
-      </c>
-      <c r="F19" s="20">
-        <f>F18*Q19</f>
-        <v>88.744444269617432</v>
-      </c>
-      <c r="G19" s="20">
-        <f>G18*Q19</f>
-        <v>44.372222134808716</v>
-      </c>
-      <c r="H19" s="20">
-        <f t="shared" si="3"/>
-        <v>46.983584801462541</v>
-      </c>
-      <c r="I19" s="20">
-        <f t="shared" si="4"/>
-        <v>93.967169602925082</v>
-      </c>
-      <c r="J19" s="20">
-        <f t="shared" si="9"/>
-        <v>28.190150880877535</v>
-      </c>
-      <c r="K19" s="20">
-        <f t="shared" si="5"/>
-        <v>61.078660241901318</v>
-      </c>
-      <c r="L19" s="20">
-        <f t="shared" si="10"/>
         <v>8.5424699639022812</v>
       </c>
       <c r="M19" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O19" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="P19" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q19" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1921,54 +1921,54 @@
         <v>91</v>
       </c>
       <c r="D20" s="20">
+        <f t="shared" si="13"/>
+        <v>62.691331276799978</v>
+      </c>
+      <c r="E20" s="20">
+        <f t="shared" si="14"/>
+        <v>31.345665638399989</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="4"/>
+        <v>106.49333312354092</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" si="0"/>
+        <v>53.246666561770461</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="5"/>
+        <v>51.212107433594177</v>
+      </c>
+      <c r="I20" s="20">
+        <f t="shared" si="6"/>
+        <v>102.42421486718835</v>
+      </c>
+      <c r="J20" s="20">
         <f t="shared" si="11"/>
-        <v>62.691331276799978</v>
-      </c>
-      <c r="E20" s="20">
+        <v>30.727264460156515</v>
+      </c>
+      <c r="K20" s="20">
+        <f t="shared" si="7"/>
+        <v>66.575739663672437</v>
+      </c>
+      <c r="L20" s="20">
         <f t="shared" si="12"/>
-        <v>31.345665638399989</v>
-      </c>
-      <c r="F20" s="20">
-        <f>F19*Q20</f>
-        <v>106.49333312354092</v>
-      </c>
-      <c r="G20" s="20">
-        <f>G19*Q20</f>
-        <v>53.246666561770461</v>
-      </c>
-      <c r="H20" s="20">
-        <f t="shared" si="3"/>
-        <v>51.212107433594177</v>
-      </c>
-      <c r="I20" s="20">
-        <f t="shared" si="4"/>
-        <v>102.42421486718835</v>
-      </c>
-      <c r="J20" s="20">
-        <f t="shared" si="9"/>
-        <v>30.727264460156515</v>
-      </c>
-      <c r="K20" s="20">
-        <f t="shared" si="5"/>
-        <v>66.575739663672437</v>
-      </c>
-      <c r="L20" s="20">
-        <f t="shared" si="10"/>
         <v>9.311292260653488</v>
       </c>
       <c r="M20" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O20" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="P20" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q20" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -1983,54 +1983,54 @@
         <v>96</v>
       </c>
       <c r="D21" s="20">
+        <f t="shared" si="13"/>
+        <v>75.229597532159971</v>
+      </c>
+      <c r="E21" s="20">
+        <f t="shared" si="14"/>
+        <v>37.614798766079986</v>
+      </c>
+      <c r="F21" s="20">
+        <f t="shared" si="4"/>
+        <v>127.7919997482491</v>
+      </c>
+      <c r="G21" s="20">
+        <f t="shared" si="0"/>
+        <v>63.895999874124549</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="5"/>
+        <v>55.82119710261766</v>
+      </c>
+      <c r="I21" s="20">
+        <f t="shared" si="6"/>
+        <v>111.64239420523532</v>
+      </c>
+      <c r="J21" s="20">
         <f t="shared" si="11"/>
-        <v>75.229597532159971</v>
-      </c>
-      <c r="E21" s="20">
+        <v>33.492718261570602</v>
+      </c>
+      <c r="K21" s="20">
+        <f t="shared" si="7"/>
+        <v>72.567556233402968</v>
+      </c>
+      <c r="L21" s="20">
         <f t="shared" si="12"/>
-        <v>37.614798766079986</v>
-      </c>
-      <c r="F21" s="20">
-        <f>F20*Q21</f>
-        <v>127.7919997482491</v>
-      </c>
-      <c r="G21" s="20">
-        <f>G20*Q21</f>
-        <v>63.895999874124549</v>
-      </c>
-      <c r="H21" s="20">
-        <f t="shared" si="3"/>
-        <v>55.82119710261766</v>
-      </c>
-      <c r="I21" s="20">
-        <f t="shared" si="4"/>
-        <v>111.64239420523532</v>
-      </c>
-      <c r="J21" s="20">
-        <f t="shared" si="9"/>
-        <v>33.492718261570602</v>
-      </c>
-      <c r="K21" s="20">
-        <f t="shared" si="5"/>
-        <v>72.567556233402968</v>
-      </c>
-      <c r="L21" s="20">
-        <f t="shared" si="10"/>
         <v>10.149308564112303</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O21" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="P21" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q21" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -2045,39 +2045,39 @@
         <v>101</v>
       </c>
       <c r="D22" s="21">
+        <f t="shared" si="13"/>
+        <v>90.275517038591957</v>
+      </c>
+      <c r="E22" s="21">
+        <f t="shared" si="14"/>
+        <v>45.137758519295978</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="4"/>
+        <v>153.35039969789892</v>
+      </c>
+      <c r="G22" s="21">
+        <f t="shared" si="0"/>
+        <v>76.675199848949461</v>
+      </c>
+      <c r="H22" s="21">
+        <f t="shared" si="5"/>
+        <v>60.286892870827074</v>
+      </c>
+      <c r="I22" s="21">
+        <f t="shared" si="6"/>
+        <v>120.57378574165415</v>
+      </c>
+      <c r="J22" s="21">
         <f t="shared" si="11"/>
-        <v>90.275517038591957</v>
-      </c>
-      <c r="E22" s="21">
+        <v>36.17213572249625</v>
+      </c>
+      <c r="K22" s="21">
+        <f t="shared" si="7"/>
+        <v>78.372960732075214</v>
+      </c>
+      <c r="L22" s="21">
         <f t="shared" si="12"/>
-        <v>45.137758519295978</v>
-      </c>
-      <c r="F22" s="21">
-        <f>F21*Q22</f>
-        <v>153.35039969789892</v>
-      </c>
-      <c r="G22" s="21">
-        <f>G21*Q22</f>
-        <v>76.675199848949461</v>
-      </c>
-      <c r="H22" s="21">
-        <f t="shared" si="3"/>
-        <v>60.286892870827074</v>
-      </c>
-      <c r="I22" s="21">
-        <f t="shared" si="4"/>
-        <v>120.57378574165415</v>
-      </c>
-      <c r="J22" s="21">
-        <f t="shared" si="9"/>
-        <v>36.17213572249625</v>
-      </c>
-      <c r="K22" s="21">
-        <f t="shared" si="5"/>
-        <v>78.372960732075214</v>
-      </c>
-      <c r="L22" s="21">
-        <f t="shared" si="10"/>
         <v>10.961253249241288</v>
       </c>
       <c r="M22" s="18" t="s">
@@ -2087,11 +2087,11 @@
         <v>1.08</v>
       </c>
       <c r="P22" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q22" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -2106,54 +2106,54 @@
         <v>106</v>
       </c>
       <c r="D23" s="21">
+        <f t="shared" si="13"/>
+        <v>108.33062044631035</v>
+      </c>
+      <c r="E23" s="21">
+        <f t="shared" si="14"/>
+        <v>54.165310223155174</v>
+      </c>
+      <c r="F23" s="21">
+        <f t="shared" si="4"/>
+        <v>184.0204796374787</v>
+      </c>
+      <c r="G23" s="21">
+        <f t="shared" si="0"/>
+        <v>92.01023981873935</v>
+      </c>
+      <c r="H23" s="21">
+        <f t="shared" si="5"/>
+        <v>65.109844300493251</v>
+      </c>
+      <c r="I23" s="21">
+        <f t="shared" si="6"/>
+        <v>130.2196886009865</v>
+      </c>
+      <c r="J23" s="21">
         <f t="shared" si="11"/>
-        <v>108.33062044631035</v>
-      </c>
-      <c r="E23" s="21">
+        <v>39.065906580295952</v>
+      </c>
+      <c r="K23" s="21">
+        <f t="shared" si="7"/>
+        <v>84.642797590641237</v>
+      </c>
+      <c r="L23" s="21">
         <f t="shared" si="12"/>
-        <v>54.165310223155174</v>
-      </c>
-      <c r="F23" s="21">
-        <f>F22*Q23</f>
-        <v>184.0204796374787</v>
-      </c>
-      <c r="G23" s="21">
-        <f>G22*Q23</f>
-        <v>92.01023981873935</v>
-      </c>
-      <c r="H23" s="21">
-        <f t="shared" si="3"/>
-        <v>65.109844300493251</v>
-      </c>
-      <c r="I23" s="21">
-        <f t="shared" si="4"/>
-        <v>130.2196886009865</v>
-      </c>
-      <c r="J23" s="21">
-        <f t="shared" si="9"/>
-        <v>39.065906580295952</v>
-      </c>
-      <c r="K23" s="21">
-        <f t="shared" si="5"/>
-        <v>84.642797590641237</v>
-      </c>
-      <c r="L23" s="21">
-        <f t="shared" si="10"/>
         <v>11.838153509180591</v>
       </c>
       <c r="M23" s="18" t="s">
         <v>16</v>
       </c>
       <c r="O23" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.08</v>
       </c>
       <c r="P23" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q23" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -2168,54 +2168,54 @@
         <v>111</v>
       </c>
       <c r="D24" s="21">
+        <f t="shared" si="13"/>
+        <v>129.99674453557242</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" si="14"/>
+        <v>64.998372267786209</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="4"/>
+        <v>220.82457556497442</v>
+      </c>
+      <c r="G24" s="21">
+        <f t="shared" si="0"/>
+        <v>110.41228778248721</v>
+      </c>
+      <c r="H24" s="21">
+        <f t="shared" si="5"/>
+        <v>70.318631844532717</v>
+      </c>
+      <c r="I24" s="21">
+        <f t="shared" si="6"/>
+        <v>140.63726368906543</v>
+      </c>
+      <c r="J24" s="21">
         <f t="shared" si="11"/>
-        <v>129.99674453557242</v>
-      </c>
-      <c r="E24" s="21">
+        <v>42.19117910671963</v>
+      </c>
+      <c r="K24" s="21">
+        <f t="shared" si="7"/>
+        <v>91.414221397892547</v>
+      </c>
+      <c r="L24" s="21">
         <f t="shared" si="12"/>
-        <v>64.998372267786209</v>
-      </c>
-      <c r="F24" s="21">
-        <f>F23*Q24</f>
-        <v>220.82457556497442</v>
-      </c>
-      <c r="G24" s="21">
-        <f>G23*Q24</f>
-        <v>110.41228778248721</v>
-      </c>
-      <c r="H24" s="21">
-        <f t="shared" si="3"/>
-        <v>70.318631844532717</v>
-      </c>
-      <c r="I24" s="21">
-        <f t="shared" si="4"/>
-        <v>140.63726368906543</v>
-      </c>
-      <c r="J24" s="21">
-        <f t="shared" si="9"/>
-        <v>42.19117910671963</v>
-      </c>
-      <c r="K24" s="21">
-        <f t="shared" si="5"/>
-        <v>91.414221397892547</v>
-      </c>
-      <c r="L24" s="21">
-        <f t="shared" si="10"/>
         <v>12.78520578991504</v>
       </c>
       <c r="M24" s="18" t="s">
         <v>16</v>
       </c>
       <c r="O24" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.08</v>
       </c>
       <c r="P24" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q24" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -2230,54 +2230,54 @@
         <v>116</v>
       </c>
       <c r="D25" s="21">
+        <f t="shared" si="13"/>
+        <v>155.99609344268688</v>
+      </c>
+      <c r="E25" s="21">
+        <f t="shared" si="14"/>
+        <v>77.998046721343442</v>
+      </c>
+      <c r="F25" s="21">
+        <f t="shared" si="4"/>
+        <v>264.98949067796929</v>
+      </c>
+      <c r="G25" s="21">
+        <f t="shared" si="0"/>
+        <v>132.49474533898464</v>
+      </c>
+      <c r="H25" s="21">
+        <f t="shared" si="5"/>
+        <v>75.944122392095338</v>
+      </c>
+      <c r="I25" s="21">
+        <f t="shared" si="6"/>
+        <v>151.88824478419068</v>
+      </c>
+      <c r="J25" s="21">
         <f t="shared" si="11"/>
-        <v>155.99609344268688</v>
-      </c>
-      <c r="E25" s="21">
+        <v>45.566473435257201</v>
+      </c>
+      <c r="K25" s="21">
+        <f t="shared" si="7"/>
+        <v>98.727359109723963</v>
+      </c>
+      <c r="L25" s="21">
         <f t="shared" si="12"/>
-        <v>77.998046721343442</v>
-      </c>
-      <c r="F25" s="21">
-        <f>F24*Q25</f>
-        <v>264.98949067796929</v>
-      </c>
-      <c r="G25" s="21">
-        <f>G24*Q25</f>
-        <v>132.49474533898464</v>
-      </c>
-      <c r="H25" s="21">
-        <f t="shared" si="3"/>
-        <v>75.944122392095338</v>
-      </c>
-      <c r="I25" s="21">
-        <f t="shared" si="4"/>
-        <v>151.88824478419068</v>
-      </c>
-      <c r="J25" s="21">
-        <f t="shared" si="9"/>
-        <v>45.566473435257201</v>
-      </c>
-      <c r="K25" s="21">
-        <f t="shared" si="5"/>
-        <v>98.727359109723963</v>
-      </c>
-      <c r="L25" s="21">
-        <f t="shared" si="10"/>
         <v>13.808022253108243</v>
       </c>
       <c r="M25" s="18" t="s">
         <v>16</v>
       </c>
       <c r="O25" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.08</v>
       </c>
       <c r="P25" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q25" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -2292,54 +2292,54 @@
         <v>121</v>
       </c>
       <c r="D26" s="21">
+        <f t="shared" si="13"/>
+        <v>187.19531213122426</v>
+      </c>
+      <c r="E26" s="21">
+        <f t="shared" si="14"/>
+        <v>93.597656065612128</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" si="4"/>
+        <v>317.98738881356314</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" si="0"/>
+        <v>158.99369440678157</v>
+      </c>
+      <c r="H26" s="21">
+        <f t="shared" si="5"/>
+        <v>82.019652183462966</v>
+      </c>
+      <c r="I26" s="21">
+        <f t="shared" si="6"/>
+        <v>164.03930436692593</v>
+      </c>
+      <c r="J26" s="21">
         <f t="shared" si="11"/>
-        <v>187.19531213122426</v>
-      </c>
-      <c r="E26" s="21">
+        <v>49.211791310077778</v>
+      </c>
+      <c r="K26" s="21">
+        <f t="shared" si="7"/>
+        <v>106.62554783850189</v>
+      </c>
+      <c r="L26" s="21">
         <f t="shared" si="12"/>
-        <v>93.597656065612128</v>
-      </c>
-      <c r="F26" s="21">
-        <f>F25*Q26</f>
-        <v>317.98738881356314</v>
-      </c>
-      <c r="G26" s="21">
-        <f>G25*Q26</f>
-        <v>158.99369440678157</v>
-      </c>
-      <c r="H26" s="21">
-        <f t="shared" si="3"/>
-        <v>82.019652183462966</v>
-      </c>
-      <c r="I26" s="21">
-        <f t="shared" si="4"/>
-        <v>164.03930436692593</v>
-      </c>
-      <c r="J26" s="21">
-        <f t="shared" si="9"/>
-        <v>49.211791310077778</v>
-      </c>
-      <c r="K26" s="21">
-        <f t="shared" si="5"/>
-        <v>106.62554783850189</v>
-      </c>
-      <c r="L26" s="21">
-        <f t="shared" si="10"/>
         <v>14.912664033356904</v>
       </c>
       <c r="M26" s="18" t="s">
         <v>16</v>
       </c>
       <c r="O26" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.08</v>
       </c>
       <c r="P26" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q26" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -2354,54 +2354,54 @@
         <v>126</v>
       </c>
       <c r="D27" s="21">
+        <f t="shared" si="13"/>
+        <v>224.6343745574691</v>
+      </c>
+      <c r="E27" s="21">
+        <f t="shared" si="14"/>
+        <v>112.31718727873455</v>
+      </c>
+      <c r="F27" s="21">
+        <f t="shared" si="4"/>
+        <v>381.58486657627577</v>
+      </c>
+      <c r="G27" s="21">
+        <f t="shared" si="0"/>
+        <v>190.79243328813789</v>
+      </c>
+      <c r="H27" s="21">
+        <f t="shared" si="5"/>
+        <v>88.581224358140005</v>
+      </c>
+      <c r="I27" s="21">
+        <f t="shared" si="6"/>
+        <v>177.16244871628001</v>
+      </c>
+      <c r="J27" s="21">
         <f t="shared" si="11"/>
-        <v>224.6343745574691</v>
-      </c>
-      <c r="E27" s="21">
+        <v>53.148734614884006</v>
+      </c>
+      <c r="K27" s="21">
+        <f t="shared" si="7"/>
+        <v>115.15559166558205</v>
+      </c>
+      <c r="L27" s="21">
         <f t="shared" si="12"/>
-        <v>112.31718727873455</v>
-      </c>
-      <c r="F27" s="21">
-        <f>F26*Q27</f>
-        <v>381.58486657627577</v>
-      </c>
-      <c r="G27" s="21">
-        <f>G26*Q27</f>
-        <v>190.79243328813789</v>
-      </c>
-      <c r="H27" s="21">
-        <f t="shared" si="3"/>
-        <v>88.581224358140005</v>
-      </c>
-      <c r="I27" s="21">
-        <f t="shared" si="4"/>
-        <v>177.16244871628001</v>
-      </c>
-      <c r="J27" s="21">
-        <f t="shared" si="9"/>
-        <v>53.148734614884006</v>
-      </c>
-      <c r="K27" s="21">
-        <f t="shared" si="5"/>
-        <v>115.15559166558205</v>
-      </c>
-      <c r="L27" s="21">
-        <f t="shared" si="10"/>
         <v>16.105677156025457</v>
       </c>
       <c r="M27" s="18" t="s">
         <v>16</v>
       </c>
       <c r="O27" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.08</v>
       </c>
       <c r="P27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q27" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -2416,54 +2416,54 @@
         <v>131</v>
       </c>
       <c r="D28" s="21">
+        <f t="shared" si="13"/>
+        <v>269.5612494689629</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="14"/>
+        <v>134.78062473448145</v>
+      </c>
+      <c r="F28" s="21">
+        <f t="shared" si="4"/>
+        <v>457.90183989153093</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="0"/>
+        <v>228.95091994576546</v>
+      </c>
+      <c r="H28" s="21">
+        <f t="shared" si="5"/>
+        <v>95.667722306791205</v>
+      </c>
+      <c r="I28" s="21">
+        <f t="shared" si="6"/>
+        <v>191.33544461358241</v>
+      </c>
+      <c r="J28" s="21">
         <f t="shared" si="11"/>
-        <v>269.5612494689629</v>
-      </c>
-      <c r="E28" s="21">
+        <v>57.40063338407473</v>
+      </c>
+      <c r="K28" s="21">
+        <f t="shared" si="7"/>
+        <v>124.36803899882862</v>
+      </c>
+      <c r="L28" s="21">
         <f t="shared" si="12"/>
-        <v>134.78062473448145</v>
-      </c>
-      <c r="F28" s="21">
-        <f>F27*Q28</f>
-        <v>457.90183989153093</v>
-      </c>
-      <c r="G28" s="21">
-        <f>G27*Q28</f>
-        <v>228.95091994576546</v>
-      </c>
-      <c r="H28" s="21">
-        <f t="shared" si="3"/>
-        <v>95.667722306791205</v>
-      </c>
-      <c r="I28" s="21">
-        <f t="shared" si="4"/>
-        <v>191.33544461358241</v>
-      </c>
-      <c r="J28" s="21">
-        <f t="shared" si="9"/>
-        <v>57.40063338407473</v>
-      </c>
-      <c r="K28" s="21">
-        <f t="shared" si="5"/>
-        <v>124.36803899882862</v>
-      </c>
-      <c r="L28" s="21">
-        <f t="shared" si="10"/>
         <v>17.394131328507495</v>
       </c>
       <c r="M28" s="18" t="s">
         <v>16</v>
       </c>
       <c r="O28" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.08</v>
       </c>
       <c r="P28" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q28" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -2478,54 +2478,54 @@
         <v>136</v>
       </c>
       <c r="D29" s="21">
+        <f t="shared" si="13"/>
+        <v>323.47349936275549</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="14"/>
+        <v>161.73674968137774</v>
+      </c>
+      <c r="F29" s="21">
+        <f t="shared" si="4"/>
+        <v>549.48220786983711</v>
+      </c>
+      <c r="G29" s="21">
+        <f t="shared" si="0"/>
+        <v>274.74110393491856</v>
+      </c>
+      <c r="H29" s="21">
+        <f t="shared" si="5"/>
+        <v>103.32114009133451</v>
+      </c>
+      <c r="I29" s="21">
+        <f t="shared" si="6"/>
+        <v>206.64228018266903</v>
+      </c>
+      <c r="J29" s="21">
         <f t="shared" si="11"/>
-        <v>323.47349936275549</v>
-      </c>
-      <c r="E29" s="21">
+        <v>61.992684054800712</v>
+      </c>
+      <c r="K29" s="21">
+        <f t="shared" si="7"/>
+        <v>134.31748211873492</v>
+      </c>
+      <c r="L29" s="21">
         <f t="shared" si="12"/>
-        <v>161.73674968137774</v>
-      </c>
-      <c r="F29" s="21">
-        <f>F28*Q29</f>
-        <v>549.48220786983711</v>
-      </c>
-      <c r="G29" s="21">
-        <f>G28*Q29</f>
-        <v>274.74110393491856</v>
-      </c>
-      <c r="H29" s="21">
-        <f t="shared" si="3"/>
-        <v>103.32114009133451</v>
-      </c>
-      <c r="I29" s="21">
-        <f t="shared" si="4"/>
-        <v>206.64228018266903</v>
-      </c>
-      <c r="J29" s="21">
-        <f t="shared" si="9"/>
-        <v>61.992684054800712</v>
-      </c>
-      <c r="K29" s="21">
-        <f t="shared" si="5"/>
-        <v>134.31748211873492</v>
-      </c>
-      <c r="L29" s="21">
-        <f t="shared" si="10"/>
         <v>18.785661834788094</v>
       </c>
       <c r="M29" s="18" t="s">
         <v>16</v>
       </c>
       <c r="O29" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.08</v>
       </c>
       <c r="P29" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q29" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -2540,54 +2540,54 @@
         <v>141</v>
       </c>
       <c r="D30" s="21">
+        <f t="shared" si="13"/>
+        <v>388.16819923530659</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" si="14"/>
+        <v>194.08409961765329</v>
+      </c>
+      <c r="F30" s="21">
+        <f t="shared" si="4"/>
+        <v>659.37864944380453</v>
+      </c>
+      <c r="G30" s="21">
+        <f t="shared" si="0"/>
+        <v>329.68932472190227</v>
+      </c>
+      <c r="H30" s="21">
+        <f t="shared" si="5"/>
+        <v>111.58683129864129</v>
+      </c>
+      <c r="I30" s="21">
+        <f t="shared" si="6"/>
+        <v>223.17366259728257</v>
+      </c>
+      <c r="J30" s="21">
         <f t="shared" si="11"/>
-        <v>388.16819923530659</v>
-      </c>
-      <c r="E30" s="21">
+        <v>66.95209877918478</v>
+      </c>
+      <c r="K30" s="21">
+        <f t="shared" si="7"/>
+        <v>145.06288068823372</v>
+      </c>
+      <c r="L30" s="21">
         <f t="shared" si="12"/>
-        <v>194.08409961765329</v>
-      </c>
-      <c r="F30" s="21">
-        <f>F29*Q30</f>
-        <v>659.37864944380453</v>
-      </c>
-      <c r="G30" s="21">
-        <f>G29*Q30</f>
-        <v>329.68932472190227</v>
-      </c>
-      <c r="H30" s="21">
-        <f t="shared" si="3"/>
-        <v>111.58683129864129</v>
-      </c>
-      <c r="I30" s="21">
-        <f t="shared" si="4"/>
-        <v>223.17366259728257</v>
-      </c>
-      <c r="J30" s="21">
-        <f t="shared" si="9"/>
-        <v>66.95209877918478</v>
-      </c>
-      <c r="K30" s="21">
-        <f t="shared" si="5"/>
-        <v>145.06288068823372</v>
-      </c>
-      <c r="L30" s="21">
-        <f t="shared" si="10"/>
         <v>20.288514781571141</v>
       </c>
       <c r="M30" s="18" t="s">
         <v>16</v>
       </c>
       <c r="O30" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.08</v>
       </c>
       <c r="P30" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q30" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -2602,54 +2602,54 @@
         <v>146</v>
       </c>
       <c r="D31" s="21">
+        <f t="shared" si="13"/>
+        <v>465.80183908236791</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="14"/>
+        <v>232.90091954118395</v>
+      </c>
+      <c r="F31" s="21">
+        <f t="shared" si="4"/>
+        <v>791.25437933256546</v>
+      </c>
+      <c r="G31" s="21">
+        <f t="shared" si="0"/>
+        <v>395.62718966628273</v>
+      </c>
+      <c r="H31" s="21">
+        <f t="shared" si="5"/>
+        <v>120.5137778025326</v>
+      </c>
+      <c r="I31" s="21">
+        <f t="shared" si="6"/>
+        <v>241.0275556050652</v>
+      </c>
+      <c r="J31" s="21">
         <f t="shared" si="11"/>
-        <v>465.80183908236791</v>
-      </c>
-      <c r="E31" s="21">
+        <v>72.308266681519569</v>
+      </c>
+      <c r="K31" s="21">
+        <f t="shared" si="7"/>
+        <v>156.66791114329243</v>
+      </c>
+      <c r="L31" s="21">
         <f t="shared" si="12"/>
-        <v>232.90091954118395</v>
-      </c>
-      <c r="F31" s="21">
-        <f>F30*Q31</f>
-        <v>791.25437933256546</v>
-      </c>
-      <c r="G31" s="21">
-        <f>G30*Q31</f>
-        <v>395.62718966628273</v>
-      </c>
-      <c r="H31" s="21">
-        <f t="shared" si="3"/>
-        <v>120.5137778025326</v>
-      </c>
-      <c r="I31" s="21">
-        <f t="shared" si="4"/>
-        <v>241.0275556050652</v>
-      </c>
-      <c r="J31" s="21">
-        <f t="shared" si="9"/>
-        <v>72.308266681519569</v>
-      </c>
-      <c r="K31" s="21">
-        <f t="shared" si="5"/>
-        <v>156.66791114329243</v>
-      </c>
-      <c r="L31" s="21">
-        <f t="shared" si="10"/>
         <v>21.911595964096833</v>
       </c>
       <c r="M31" s="18" t="s">
         <v>16</v>
       </c>
       <c r="O31" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.08</v>
       </c>
       <c r="P31" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
       <c r="Q31" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -2664,39 +2664,39 @@
         <v>151</v>
       </c>
       <c r="D32" s="14">
-        <f t="shared" ref="D32:D41" si="13">D31*P32</f>
+        <f t="shared" ref="D32:D41" si="15">D31*P32</f>
         <v>605.54239080707828</v>
       </c>
       <c r="E32" s="14">
-        <f t="shared" ref="E32:E41" si="14">E31*P32</f>
+        <f t="shared" ref="E32:E41" si="16">E31*P32</f>
         <v>302.77119540353914</v>
       </c>
       <c r="F32" s="14">
-        <f>F31*Q32</f>
+        <f t="shared" si="4"/>
         <v>870.37981726582211</v>
       </c>
       <c r="G32" s="14">
-        <f>G31*Q32</f>
+        <f t="shared" si="0"/>
         <v>435.18990863291106</v>
       </c>
       <c r="H32" s="14">
-        <f t="shared" ref="H32:H41" si="15">H31*O32</f>
+        <f t="shared" ref="H32:H41" si="17">H31*O32</f>
         <v>128.9497422487099</v>
       </c>
       <c r="I32" s="14">
-        <f t="shared" ref="I32:I41" si="16">I31*O32</f>
+        <f t="shared" ref="I32:I41" si="18">I31*O32</f>
         <v>257.89948449741979</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" ref="J32:J41" si="17">J31*O32</f>
+        <f t="shared" ref="J32:J41" si="19">J31*O32</f>
         <v>77.36984534922594</v>
       </c>
       <c r="K32" s="14">
-        <f t="shared" ref="K32:K41" si="18">K31*O32</f>
+        <f t="shared" ref="K32:K41" si="20">K31*O32</f>
         <v>167.6346649233229</v>
       </c>
       <c r="L32" s="14">
-        <f t="shared" ref="L32:L41" si="19">L31*O32</f>
+        <f t="shared" ref="L32:L41" si="21">L31*O32</f>
         <v>23.445407681583614</v>
       </c>
       <c r="M32" s="5" t="s">
@@ -2723,46 +2723,46 @@
         <v>156</v>
       </c>
       <c r="D33" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>787.20510804920184</v>
       </c>
       <c r="E33" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>393.60255402460092</v>
       </c>
       <c r="F33" s="14">
-        <f>F32*Q33</f>
+        <f t="shared" si="4"/>
         <v>957.41779899240441</v>
       </c>
       <c r="G33" s="14">
-        <f>G32*Q33</f>
+        <f t="shared" si="0"/>
         <v>478.70889949620221</v>
       </c>
       <c r="H33" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>137.97622420611961</v>
       </c>
       <c r="I33" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>275.95244841223922</v>
       </c>
       <c r="J33" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>82.785734523671763</v>
       </c>
       <c r="K33" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>179.36909146795551</v>
       </c>
       <c r="L33" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>25.086586219294468</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O33" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.07</v>
       </c>
       <c r="P33" s="22">
@@ -2785,46 +2785,46 @@
         <v>161</v>
       </c>
       <c r="D34" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1023.3666404639624</v>
       </c>
       <c r="E34" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>511.68332023198121</v>
       </c>
       <c r="F34" s="14">
-        <f>F33*Q34</f>
+        <f t="shared" si="4"/>
         <v>1053.159578891645</v>
       </c>
       <c r="G34" s="14">
-        <f>G33*Q34</f>
+        <f t="shared" si="0"/>
         <v>526.57978944582248</v>
       </c>
       <c r="H34" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>147.634559900548</v>
       </c>
       <c r="I34" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>295.269119801096</v>
       </c>
       <c r="J34" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>88.580735940328793</v>
       </c>
       <c r="K34" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>191.92492787071242</v>
       </c>
       <c r="L34" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>26.842647254645083</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O34" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.07</v>
       </c>
       <c r="P34" s="22">
@@ -2847,54 +2847,54 @@
         <v>166</v>
       </c>
       <c r="D35" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1330.3766326031512</v>
       </c>
       <c r="E35" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>665.18831630157558</v>
       </c>
       <c r="F35" s="14">
-        <f>F34*Q35</f>
+        <f t="shared" si="4"/>
         <v>1158.4755367808095</v>
       </c>
       <c r="G35" s="14">
-        <f>G34*Q35</f>
+        <f t="shared" ref="G35:G61" si="22">G34*Q35</f>
         <v>579.23776839040477</v>
       </c>
       <c r="H35" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>157.96897909358637</v>
       </c>
       <c r="I35" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>315.93795818717274</v>
       </c>
       <c r="J35" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>94.781387456151819</v>
       </c>
       <c r="K35" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>205.35967282166231</v>
       </c>
       <c r="L35" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>28.721632562470241</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.07</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -2909,54 +2909,54 @@
         <v>171</v>
       </c>
       <c r="D36" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1729.4896223840965</v>
       </c>
       <c r="E36" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>864.74481119204825</v>
       </c>
       <c r="F36" s="14">
-        <f>F35*Q36</f>
+        <f t="shared" si="4"/>
         <v>1274.3230904588906</v>
       </c>
       <c r="G36" s="14">
-        <f>G35*Q36</f>
+        <f t="shared" si="22"/>
         <v>637.16154522944532</v>
       </c>
       <c r="H36" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>169.02680763013743</v>
       </c>
       <c r="I36" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>338.05361526027485</v>
       </c>
       <c r="J36" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>101.41608457808245</v>
       </c>
       <c r="K36" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>219.73484991917869</v>
       </c>
       <c r="L36" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>30.732146841843161</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O36" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.07</v>
       </c>
       <c r="P36" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
       <c r="Q36" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -2971,54 +2971,54 @@
         <v>176</v>
       </c>
       <c r="D37" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2248.3365090993257</v>
       </c>
       <c r="E37" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1124.1682545496628</v>
       </c>
       <c r="F37" s="14">
-        <f>F36*Q37</f>
+        <f t="shared" ref="F37:F61" si="23">F36*Q37</f>
         <v>1401.7553995047799</v>
       </c>
       <c r="G37" s="14">
-        <f>G36*Q37</f>
+        <f t="shared" si="22"/>
         <v>700.87769975238996</v>
       </c>
       <c r="H37" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>180.85868416424705</v>
       </c>
       <c r="I37" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>361.7173683284941</v>
       </c>
       <c r="J37" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>108.51521049854823</v>
       </c>
       <c r="K37" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>235.1162894135212</v>
       </c>
       <c r="L37" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>32.883397120772187</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.07</v>
       </c>
       <c r="P37" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
       <c r="Q37" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3033,54 +3033,54 @@
         <v>181</v>
       </c>
       <c r="D38" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2922.8374618291236</v>
       </c>
       <c r="E38" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1461.4187309145618</v>
       </c>
       <c r="F38" s="14">
-        <f>F37*Q38</f>
+        <f t="shared" si="23"/>
         <v>1541.9309394552581</v>
       </c>
       <c r="G38" s="14">
-        <f>G37*Q38</f>
+        <f t="shared" si="22"/>
         <v>770.96546972762906</v>
       </c>
       <c r="H38" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>193.51879205574437</v>
       </c>
       <c r="I38" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>387.03758411148874</v>
       </c>
       <c r="J38" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>116.11127523344661</v>
       </c>
       <c r="K38" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>251.57442967246769</v>
       </c>
       <c r="L38" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>35.185234919226239</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.07</v>
       </c>
       <c r="P38" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
       <c r="Q38" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3095,54 +3095,54 @@
         <v>186</v>
       </c>
       <c r="D39" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3799.6887003778606</v>
       </c>
       <c r="E39" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1899.8443501889303</v>
       </c>
       <c r="F39" s="14">
-        <f>F38*Q39</f>
+        <f t="shared" si="23"/>
         <v>1696.1240334007841</v>
       </c>
       <c r="G39" s="14">
-        <f>G38*Q39</f>
+        <f t="shared" si="22"/>
         <v>848.06201670039206</v>
       </c>
       <c r="H39" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>207.0651074996465</v>
       </c>
       <c r="I39" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>414.130214999293</v>
       </c>
       <c r="J39" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>124.23906449978787</v>
       </c>
       <c r="K39" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>269.18463974954045</v>
       </c>
       <c r="L39" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>37.648201363572078</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O39" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.07</v>
       </c>
       <c r="P39" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
       <c r="Q39" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3157,54 +3157,54 @@
         <v>191</v>
       </c>
       <c r="D40" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4939.5953104912187</v>
       </c>
       <c r="E40" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2469.7976552456093</v>
       </c>
       <c r="F40" s="14">
-        <f>F39*Q40</f>
+        <f t="shared" si="23"/>
         <v>1865.7364367408627</v>
       </c>
       <c r="G40" s="14">
-        <f>G39*Q40</f>
+        <f t="shared" si="22"/>
         <v>932.86821837043135</v>
       </c>
       <c r="H40" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>221.55966502462178</v>
       </c>
       <c r="I40" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>443.11933004924356</v>
       </c>
       <c r="J40" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>132.93579901477304</v>
       </c>
       <c r="K40" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>288.02756453200828</v>
       </c>
       <c r="L40" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>40.283575459022124</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O40" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.07</v>
       </c>
       <c r="P40" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
       <c r="Q40" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3219,54 +3219,54 @@
         <v>196</v>
       </c>
       <c r="D41" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6421.4739036385845</v>
       </c>
       <c r="E41" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3210.7369518192922</v>
       </c>
       <c r="F41" s="14">
-        <f>F40*Q41</f>
+        <f t="shared" si="23"/>
         <v>2052.310080414949</v>
       </c>
       <c r="G41" s="14">
-        <f>G40*Q41</f>
+        <f t="shared" si="22"/>
         <v>1026.1550402074745</v>
       </c>
       <c r="H41" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>237.06884157634531</v>
       </c>
       <c r="I41" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>474.13768315269061</v>
       </c>
       <c r="J41" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>142.24130494580717</v>
       </c>
       <c r="K41" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>308.18949404924888</v>
       </c>
       <c r="L41" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>43.103425741153679</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O41" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.07</v>
       </c>
       <c r="P41" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
       <c r="Q41" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3281,39 +3281,39 @@
         <v>201</v>
       </c>
       <c r="D42" s="15">
-        <f t="shared" ref="D42:D51" si="20">D41*P42</f>
+        <f t="shared" ref="D42:D51" si="24">D41*P42</f>
         <v>8990.0634650940174</v>
       </c>
       <c r="E42" s="15">
-        <f t="shared" ref="E42:E51" si="21">E41*P42</f>
+        <f t="shared" ref="E42:E51" si="25">E41*P42</f>
         <v>4495.0317325470087</v>
       </c>
       <c r="F42" s="15">
-        <f>F41*Q42</f>
+        <f t="shared" si="23"/>
         <v>2257.541088456444</v>
       </c>
       <c r="G42" s="15">
-        <f>G41*Q42</f>
+        <f t="shared" si="22"/>
         <v>1128.770544228222</v>
       </c>
       <c r="H42" s="15">
-        <f t="shared" ref="H42:H50" si="22">H41*O42</f>
+        <f t="shared" ref="H42:H50" si="26">H41*O42</f>
         <v>251.29297207092603</v>
       </c>
       <c r="I42" s="15">
-        <f t="shared" ref="I42:I51" si="23">I41*O42</f>
+        <f t="shared" ref="I42:I51" si="27">I41*O42</f>
         <v>502.58594414185205</v>
       </c>
       <c r="J42" s="15">
-        <f t="shared" ref="J42:J51" si="24">J41*O42</f>
+        <f t="shared" ref="J42:J51" si="28">J41*O42</f>
         <v>150.7757832425556</v>
       </c>
       <c r="K42" s="15">
-        <f t="shared" ref="K42:K51" si="25">K41*O42</f>
+        <f t="shared" ref="K42:K51" si="29">K41*O42</f>
         <v>326.68086369220384</v>
       </c>
       <c r="L42" s="15">
-        <f t="shared" ref="L42:L51" si="26">L41*O42</f>
+        <f t="shared" ref="L42:L51" si="30">L41*O42</f>
         <v>45.689631285622902</v>
       </c>
       <c r="M42" s="4" t="s">
@@ -3326,7 +3326,7 @@
         <v>1.4</v>
       </c>
       <c r="Q42" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3341,54 +3341,54 @@
         <v>206</v>
       </c>
       <c r="D43" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>12586.088851131624</v>
       </c>
       <c r="E43" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>6293.0444255658122</v>
       </c>
       <c r="F43" s="15">
-        <f>F42*Q43</f>
+        <f t="shared" si="23"/>
         <v>2483.2951973020886</v>
       </c>
       <c r="G43" s="15">
-        <f>G42*Q43</f>
+        <f t="shared" si="22"/>
         <v>1241.6475986510443</v>
       </c>
       <c r="H43" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>266.37055039518162</v>
       </c>
       <c r="I43" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>532.74110079036325</v>
       </c>
       <c r="J43" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>159.82233023710896</v>
       </c>
       <c r="K43" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>346.28171551373612</v>
       </c>
       <c r="L43" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>48.431009162760276</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O43" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.06</v>
       </c>
       <c r="P43" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="Q43" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3403,54 +3403,54 @@
         <v>211</v>
       </c>
       <c r="D44" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>17620.524391584273</v>
       </c>
       <c r="E44" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>8810.2621957921365</v>
       </c>
       <c r="F44" s="15">
-        <f>F43*Q44</f>
+        <f t="shared" si="23"/>
         <v>2731.6247170322977</v>
       </c>
       <c r="G44" s="15">
-        <f>G43*Q44</f>
+        <f t="shared" si="22"/>
         <v>1365.8123585161488</v>
       </c>
       <c r="H44" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>282.35278341889256</v>
       </c>
       <c r="I44" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>564.70556683778511</v>
       </c>
       <c r="J44" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>169.41167005133551</v>
       </c>
       <c r="K44" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>367.0586184445603</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>51.336869712525896</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O44" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.06</v>
       </c>
       <c r="P44" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="Q44" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3465,54 +3465,54 @@
         <v>216</v>
       </c>
       <c r="D45" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>24668.73414821798</v>
       </c>
       <c r="E45" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>12334.36707410899</v>
       </c>
       <c r="F45" s="15">
-        <f>F44*Q45</f>
+        <f t="shared" si="23"/>
         <v>3004.7871887355277</v>
       </c>
       <c r="G45" s="15">
-        <f>G44*Q45</f>
+        <f t="shared" si="22"/>
         <v>1502.3935943677639</v>
       </c>
       <c r="H45" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>299.29395042402615</v>
       </c>
       <c r="I45" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>598.5879008480523</v>
       </c>
       <c r="J45" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>179.57637025441565</v>
       </c>
       <c r="K45" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>389.08213555123393</v>
       </c>
       <c r="L45" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>54.417081895277455</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.06</v>
       </c>
       <c r="P45" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="Q45" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3527,54 +3527,54 @@
         <v>221</v>
       </c>
       <c r="D46" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>34536.227807505173</v>
       </c>
       <c r="E46" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>17268.113903752586</v>
       </c>
       <c r="F46" s="15">
-        <f>F45*Q46</f>
+        <f t="shared" si="23"/>
         <v>3305.2659076090808</v>
       </c>
       <c r="G46" s="15">
-        <f>G45*Q46</f>
+        <f t="shared" si="22"/>
         <v>1652.6329538045404</v>
       </c>
       <c r="H46" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>317.25158744946776</v>
       </c>
       <c r="I46" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>634.50317489893553</v>
       </c>
       <c r="J46" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>190.35095246968061</v>
       </c>
       <c r="K46" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>412.427063684308</v>
       </c>
       <c r="L46" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>57.682106808994106</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O46" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.06</v>
       </c>
       <c r="P46" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="Q46" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3589,54 +3589,54 @@
         <v>226</v>
       </c>
       <c r="D47" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>48350.718930507239</v>
       </c>
       <c r="E47" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>24175.359465253619</v>
       </c>
       <c r="F47" s="15">
-        <f>F46*Q47</f>
+        <f t="shared" si="23"/>
         <v>3635.7924983699891</v>
       </c>
       <c r="G47" s="15">
-        <f>G46*Q47</f>
+        <f t="shared" si="22"/>
         <v>1817.8962491849945</v>
       </c>
       <c r="H47" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>336.28668269643583</v>
       </c>
       <c r="I47" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>672.57336539287166</v>
       </c>
       <c r="J47" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>201.77200961786144</v>
       </c>
       <c r="K47" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>437.17268750536653</v>
       </c>
       <c r="L47" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>61.143033217533755</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.06</v>
       </c>
       <c r="P47" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="Q47" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3651,54 +3651,54 @@
         <v>231</v>
       </c>
       <c r="D48" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>67691.006502710137</v>
       </c>
       <c r="E48" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>33845.503251355069</v>
       </c>
       <c r="F48" s="15">
-        <f>F47*Q48</f>
+        <f t="shared" si="23"/>
         <v>3999.3717482069883</v>
       </c>
       <c r="G48" s="15">
-        <f>G47*Q48</f>
+        <f t="shared" si="22"/>
         <v>1999.6858741034941</v>
       </c>
       <c r="H48" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>356.46388365822202</v>
       </c>
       <c r="I48" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>712.92776731644403</v>
       </c>
       <c r="J48" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>213.87833019493314</v>
       </c>
       <c r="K48" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>463.40304875568853</v>
       </c>
       <c r="L48" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>64.811615210585785</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O48" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.06</v>
       </c>
       <c r="P48" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="Q48" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3713,54 +3713,54 @@
         <v>236</v>
       </c>
       <c r="D49" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>94767.409103794183</v>
       </c>
       <c r="E49" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>47383.704551897092</v>
       </c>
       <c r="F49" s="15">
-        <f>F48*Q49</f>
+        <f t="shared" si="23"/>
         <v>4399.3089230276873</v>
       </c>
       <c r="G49" s="15">
-        <f>G48*Q49</f>
+        <f t="shared" si="22"/>
         <v>2199.6544615138437</v>
       </c>
       <c r="H49" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>377.85171667771533</v>
       </c>
       <c r="I49" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>755.70343335543066</v>
       </c>
       <c r="J49" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>226.71103000662913</v>
       </c>
       <c r="K49" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>491.20723168102984</v>
       </c>
       <c r="L49" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>68.700312123220939</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.06</v>
       </c>
       <c r="P49" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="Q49" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3775,54 +3775,54 @@
         <v>241</v>
       </c>
       <c r="D50" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>132674.37274531185</v>
       </c>
       <c r="E50" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>66337.186372655924</v>
       </c>
       <c r="F50" s="15">
-        <f>F49*Q50</f>
+        <f t="shared" si="23"/>
         <v>4839.2398153304566</v>
       </c>
       <c r="G50" s="15">
-        <f>G49*Q50</f>
+        <f t="shared" si="22"/>
         <v>2419.6199076652283</v>
       </c>
       <c r="H50" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>400.52281967837826</v>
       </c>
       <c r="I50" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>801.04563935675651</v>
       </c>
       <c r="J50" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>240.31369180702688</v>
       </c>
       <c r="K50" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>520.67966558189164</v>
       </c>
       <c r="L50" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>72.822330850614193</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O50" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.06</v>
       </c>
       <c r="P50" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="Q50" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3837,19 +3837,19 @@
         <v>246</v>
       </c>
       <c r="D51" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>185744.12184343659</v>
       </c>
       <c r="E51" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>92872.060921718294</v>
       </c>
       <c r="F51" s="15">
-        <f>F50*Q51</f>
+        <f t="shared" si="23"/>
         <v>5323.1637968635023</v>
       </c>
       <c r="G51" s="15">
-        <f>G50*Q51</f>
+        <f t="shared" si="22"/>
         <v>2661.5818984317511</v>
       </c>
       <c r="H51" s="15">
@@ -3857,34 +3857,34 @@
         <v>424.55418885908097</v>
       </c>
       <c r="I51" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>849.10837771816193</v>
       </c>
       <c r="J51" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>254.7325133154485</v>
       </c>
       <c r="K51" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>551.92044551680522</v>
       </c>
       <c r="L51" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>77.191670701651049</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O51" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.06</v>
       </c>
       <c r="P51" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="Q51" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3899,39 +3899,39 @@
         <v>251</v>
       </c>
       <c r="D52" s="16">
-        <f t="shared" ref="D52:D61" si="27">D51*P52</f>
+        <f t="shared" ref="D52:D61" si="31">D51*P52</f>
         <v>278616.18276515487</v>
       </c>
       <c r="E52" s="16">
-        <f t="shared" ref="E52:E61" si="28">E51*P52</f>
+        <f t="shared" ref="E52:E61" si="32">E51*P52</f>
         <v>139308.09138257743</v>
       </c>
       <c r="F52" s="16">
-        <f>F51*Q52</f>
+        <f t="shared" si="23"/>
         <v>5589.3219867066773</v>
       </c>
       <c r="G52" s="16">
-        <f>G51*Q52</f>
+        <f t="shared" si="22"/>
         <v>2794.6609933533387</v>
       </c>
       <c r="H52" s="16">
-        <f t="shared" ref="H52:H61" si="29">H51*O52</f>
+        <f t="shared" ref="H52:H61" si="33">H51*O52</f>
         <v>445.78189830203502</v>
       </c>
       <c r="I52" s="16">
-        <f t="shared" ref="I52:I61" si="30">I51*O52</f>
+        <f t="shared" ref="I52:I61" si="34">I51*O52</f>
         <v>891.56379660407003</v>
       </c>
       <c r="J52" s="16">
-        <f t="shared" ref="J52:J61" si="31">J51*O52</f>
+        <f t="shared" ref="J52:J61" si="35">J51*O52</f>
         <v>267.46913898122091</v>
       </c>
       <c r="K52" s="16">
-        <f t="shared" ref="K52:K61" si="32">K51*O52</f>
+        <f t="shared" ref="K52:K61" si="36">K51*O52</f>
         <v>579.51646779264547</v>
       </c>
       <c r="L52" s="16">
-        <f t="shared" ref="L52:L61" si="33">L51*O52</f>
+        <f t="shared" ref="L52:L61" si="37">L51*O52</f>
         <v>81.051254236733598</v>
       </c>
       <c r="M52" s="6" t="s">
@@ -3958,54 +3958,54 @@
         <v>256</v>
       </c>
       <c r="D53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>417924.2741477323</v>
       </c>
       <c r="E53" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>208962.13707386615</v>
       </c>
       <c r="F53" s="16">
-        <f>F52*Q53</f>
+        <f t="shared" si="23"/>
         <v>5868.7880860420119</v>
       </c>
       <c r="G53" s="16">
-        <f>G52*Q53</f>
+        <f t="shared" si="22"/>
         <v>2934.3940430210059</v>
       </c>
       <c r="H53" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>468.07099321713679</v>
       </c>
       <c r="I53" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>936.14198643427358</v>
       </c>
       <c r="J53" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>280.84259593028196</v>
       </c>
       <c r="K53" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>608.49229118227777</v>
       </c>
       <c r="L53" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>85.103816948570284</v>
       </c>
       <c r="M53" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O53" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.05</v>
       </c>
       <c r="P53" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="Q53" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.05</v>
       </c>
     </row>
@@ -4020,54 +4020,54 @@
         <v>261</v>
       </c>
       <c r="D54" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>626886.41122159851</v>
       </c>
       <c r="E54" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>313443.20561079925</v>
       </c>
       <c r="F54" s="16">
-        <f>F53*Q54</f>
+        <f t="shared" si="23"/>
         <v>6162.227490344113</v>
       </c>
       <c r="G54" s="16">
-        <f>G53*Q54</f>
+        <f t="shared" si="22"/>
         <v>3081.1137451720565</v>
       </c>
       <c r="H54" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>491.47454287799366</v>
       </c>
       <c r="I54" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>982.94908575598731</v>
       </c>
       <c r="J54" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>294.88472572679609</v>
       </c>
       <c r="K54" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>638.9169057413917</v>
       </c>
       <c r="L54" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>89.359007795998807</v>
       </c>
       <c r="M54" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O54" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.05</v>
       </c>
       <c r="P54" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="Q54" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.05</v>
       </c>
     </row>
@@ -4082,54 +4082,54 @@
         <v>266</v>
       </c>
       <c r="D55" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>940329.61683239776</v>
       </c>
       <c r="E55" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>470164.80841619888</v>
       </c>
       <c r="F55" s="16">
-        <f>F54*Q55</f>
+        <f t="shared" si="23"/>
         <v>6470.3388648613191</v>
       </c>
       <c r="G55" s="16">
-        <f>G54*Q55</f>
+        <f t="shared" si="22"/>
         <v>3235.1694324306595</v>
       </c>
       <c r="H55" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>516.04827002189336</v>
       </c>
       <c r="I55" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1032.0965400437867</v>
       </c>
       <c r="J55" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>309.62896201313589</v>
       </c>
       <c r="K55" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>670.86275102846128</v>
       </c>
       <c r="L55" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>93.826958185798745</v>
       </c>
       <c r="M55" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O55" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.05</v>
       </c>
       <c r="P55" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="Q55" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.05</v>
       </c>
     </row>
@@ -4144,54 +4144,54 @@
         <v>271</v>
       </c>
       <c r="D56" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1410494.4252485966</v>
       </c>
       <c r="E56" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>705247.21262429829</v>
       </c>
       <c r="F56" s="16">
-        <f>F55*Q56</f>
+        <f t="shared" si="23"/>
         <v>6793.8558081043857</v>
       </c>
       <c r="G56" s="16">
-        <f>G55*Q56</f>
+        <f t="shared" si="22"/>
         <v>3396.9279040521928</v>
       </c>
       <c r="H56" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>541.85068352298811</v>
       </c>
       <c r="I56" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1083.7013670459762</v>
       </c>
       <c r="J56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>325.11041011379268</v>
       </c>
       <c r="K56" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>704.40588857988439</v>
       </c>
       <c r="L56" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>98.51830609508869</v>
       </c>
       <c r="M56" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O56" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.05</v>
       </c>
       <c r="P56" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="Q56" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.05</v>
       </c>
     </row>
@@ -4206,54 +4206,54 @@
         <v>276</v>
       </c>
       <c r="D57" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2115741.6378728948</v>
       </c>
       <c r="E57" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1057870.8189364474</v>
       </c>
       <c r="F57" s="16">
-        <f>F56*Q57</f>
+        <f t="shared" si="23"/>
         <v>7133.5485985096057</v>
       </c>
       <c r="G57" s="16">
-        <f>G56*Q57</f>
+        <f t="shared" si="22"/>
         <v>3566.7742992548028</v>
       </c>
       <c r="H57" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>568.94321769913756</v>
       </c>
       <c r="I57" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1137.8864353982751</v>
       </c>
       <c r="J57" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>341.36593061948236</v>
       </c>
       <c r="K57" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>739.62618300887868</v>
       </c>
       <c r="L57" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>103.44422139984313</v>
       </c>
       <c r="M57" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O57" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.05</v>
       </c>
       <c r="P57" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="Q57" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.05</v>
       </c>
     </row>
@@ -4268,54 +4268,54 @@
         <v>281</v>
       </c>
       <c r="D58" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3173612.4568093419</v>
       </c>
       <c r="E58" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1586806.228404671</v>
       </c>
       <c r="F58" s="16">
-        <f>F57*Q58</f>
+        <f t="shared" si="23"/>
         <v>7490.2260284350859</v>
       </c>
       <c r="G58" s="16">
-        <f>G57*Q58</f>
+        <f t="shared" si="22"/>
         <v>3745.113014217543</v>
       </c>
       <c r="H58" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>597.39037858409449</v>
       </c>
       <c r="I58" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1194.780757168189</v>
       </c>
       <c r="J58" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>358.43422715045648</v>
       </c>
       <c r="K58" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>776.60749215932265</v>
       </c>
       <c r="L58" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>108.61643246983529</v>
       </c>
       <c r="M58" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O58" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.05</v>
       </c>
       <c r="P58" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="Q58" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.05</v>
       </c>
     </row>
@@ -4330,54 +4330,54 @@
         <v>286</v>
       </c>
       <c r="D59" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>4760418.6852140129</v>
       </c>
       <c r="E59" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2380209.3426070064</v>
       </c>
       <c r="F59" s="16">
-        <f>F58*Q59</f>
+        <f t="shared" si="23"/>
         <v>7864.7373298568409</v>
       </c>
       <c r="G59" s="16">
-        <f>G58*Q59</f>
+        <f t="shared" si="22"/>
         <v>3932.3686649284205</v>
       </c>
       <c r="H59" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>627.25989751329928</v>
       </c>
       <c r="I59" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1254.5197950265986</v>
       </c>
       <c r="J59" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>376.35593850797932</v>
       </c>
       <c r="K59" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>815.43786676728882</v>
       </c>
       <c r="L59" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>114.04725409332706</v>
       </c>
       <c r="M59" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O59" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.05</v>
       </c>
       <c r="P59" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="Q59" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.05</v>
       </c>
     </row>
@@ -4392,54 +4392,54 @@
         <v>291</v>
       </c>
       <c r="D60" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>7140628.0278210193</v>
       </c>
       <c r="E60" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3570314.0139105096</v>
       </c>
       <c r="F60" s="16">
-        <f>F59*Q60</f>
+        <f t="shared" si="23"/>
         <v>8257.9741963496836</v>
       </c>
       <c r="G60" s="16">
-        <f>G59*Q60</f>
+        <f t="shared" si="22"/>
         <v>4128.9870981748418</v>
       </c>
       <c r="H60" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>658.62289238896426</v>
       </c>
       <c r="I60" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1317.2457847779285</v>
       </c>
       <c r="J60" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>395.17373543337828</v>
       </c>
       <c r="K60" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>856.20976010565334</v>
       </c>
       <c r="L60" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>119.74961679799341</v>
       </c>
       <c r="M60" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O60" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.05</v>
       </c>
       <c r="P60" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="Q60" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.05</v>
       </c>
     </row>
@@ -4454,144 +4454,56 @@
         <v>296</v>
       </c>
       <c r="D61" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>10710942.041731529</v>
       </c>
       <c r="E61" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5355471.0208657645</v>
       </c>
       <c r="F61" s="16">
-        <f>F60*Q61</f>
+        <f t="shared" si="23"/>
         <v>8670.8729061671675</v>
       </c>
       <c r="G61" s="16">
-        <f>G60*Q61</f>
+        <f t="shared" si="22"/>
         <v>4335.4364530835837</v>
       </c>
       <c r="H61" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>691.55403700841248</v>
       </c>
       <c r="I61" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1383.108074016825</v>
       </c>
       <c r="J61" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>414.9324222050472</v>
       </c>
       <c r="K61" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>899.020248110936</v>
       </c>
       <c r="L61" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>125.73709763789309</v>
       </c>
       <c r="M61" s="6" t="s">
         <v>37</v>
       </c>
       <c r="O61" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.05</v>
       </c>
       <c r="P61" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="Q61" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.05</v>
       </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/npcs.xlsx
+++ b/data/npcs.xlsx
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD538"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -819,10 +819,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="13">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="E2" s="13">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="F2" s="13">
         <v>4</v>
@@ -870,11 +870,11 @@
       </c>
       <c r="D3" s="13">
         <f>D2*P3</f>
-        <v>2.5</v>
+        <v>312.5</v>
       </c>
       <c r="E3" s="13">
         <f>E2*P3</f>
-        <v>1.25</v>
+        <v>187.5</v>
       </c>
       <c r="F3" s="13">
         <f>F2*Q3</f>
@@ -932,11 +932,11 @@
       </c>
       <c r="D4" s="13">
         <f>D3*P4</f>
-        <v>3.125</v>
+        <v>390.625</v>
       </c>
       <c r="E4" s="13">
         <f>E3*P4</f>
-        <v>1.5625</v>
+        <v>234.375</v>
       </c>
       <c r="F4" s="13">
         <f>F3*Q4</f>
@@ -994,11 +994,11 @@
       </c>
       <c r="D5" s="13">
         <f t="shared" ref="D5:D16" si="2">D4*P5</f>
-        <v>3.90625</v>
+        <v>488.28125</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" ref="E5:E16" si="3">E4*P5</f>
-        <v>1.953125</v>
+        <v>292.96875</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" ref="F5:F36" si="4">F4*Q5</f>
@@ -1056,11 +1056,11 @@
       </c>
       <c r="D6" s="13">
         <f t="shared" si="2"/>
-        <v>4.8828125</v>
+        <v>610.3515625</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="3"/>
-        <v>2.44140625</v>
+        <v>366.2109375</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="4"/>
@@ -1118,11 +1118,11 @@
       </c>
       <c r="D7" s="13">
         <f t="shared" si="2"/>
-        <v>5.859375</v>
+        <v>732.421875</v>
       </c>
       <c r="E7" s="13">
         <f t="shared" si="3"/>
-        <v>2.9296875</v>
+        <v>439.453125</v>
       </c>
       <c r="F7" s="13">
         <f t="shared" si="4"/>
@@ -1179,11 +1179,11 @@
       </c>
       <c r="D8" s="13">
         <f t="shared" si="2"/>
-        <v>7.03125</v>
+        <v>878.90625</v>
       </c>
       <c r="E8" s="13">
         <f t="shared" si="3"/>
-        <v>3.515625</v>
+        <v>527.34375</v>
       </c>
       <c r="F8" s="13">
         <f t="shared" si="4"/>
@@ -1241,11 +1241,11 @@
       </c>
       <c r="D9" s="13">
         <f t="shared" si="2"/>
-        <v>8.4375</v>
+        <v>1054.6875</v>
       </c>
       <c r="E9" s="13">
         <f t="shared" si="3"/>
-        <v>4.21875</v>
+        <v>632.8125</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="4"/>
@@ -1303,11 +1303,11 @@
       </c>
       <c r="D10" s="13">
         <f t="shared" si="2"/>
-        <v>10.125</v>
+        <v>1265.625</v>
       </c>
       <c r="E10" s="13">
         <f t="shared" si="3"/>
-        <v>5.0625</v>
+        <v>759.375</v>
       </c>
       <c r="F10" s="13">
         <f t="shared" si="4"/>
@@ -1365,11 +1365,11 @@
       </c>
       <c r="D11" s="13">
         <f t="shared" si="2"/>
-        <v>12.15</v>
+        <v>1518.75</v>
       </c>
       <c r="E11" s="13">
         <f t="shared" si="3"/>
-        <v>6.0750000000000002</v>
+        <v>911.25</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" si="4"/>
@@ -1427,11 +1427,11 @@
       </c>
       <c r="D12" s="20">
         <f t="shared" si="2"/>
-        <v>14.58</v>
+        <v>1746.5624999999998</v>
       </c>
       <c r="E12" s="20">
         <f t="shared" si="3"/>
-        <v>7.29</v>
+        <v>1047.9375</v>
       </c>
       <c r="F12" s="20">
         <f t="shared" si="4"/>
@@ -1468,8 +1468,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="P12" s="23">
-        <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q12" s="23">
         <f t="shared" si="10"/>
@@ -1488,11 +1487,11 @@
       </c>
       <c r="D13" s="20">
         <f t="shared" si="2"/>
-        <v>17.495999999999999</v>
+        <v>2008.5468749999995</v>
       </c>
       <c r="E13" s="20">
         <f t="shared" si="3"/>
-        <v>8.7479999999999993</v>
+        <v>1205.128125</v>
       </c>
       <c r="F13" s="20">
         <f t="shared" si="4"/>
@@ -1531,7 +1530,7 @@
       </c>
       <c r="P13" s="22">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q13" s="22">
         <f t="shared" si="10"/>
@@ -1550,11 +1549,11 @@
       </c>
       <c r="D14" s="20">
         <f t="shared" si="2"/>
-        <v>20.995199999999997</v>
+        <v>2309.8289062499994</v>
       </c>
       <c r="E14" s="20">
         <f t="shared" si="3"/>
-        <v>10.497599999999998</v>
+        <v>1385.8973437499999</v>
       </c>
       <c r="F14" s="20">
         <f t="shared" si="4"/>
@@ -1593,7 +1592,7 @@
       </c>
       <c r="P14" s="22">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q14" s="22">
         <f t="shared" si="10"/>
@@ -1612,11 +1611,11 @@
       </c>
       <c r="D15" s="20">
         <f t="shared" si="2"/>
-        <v>25.194239999999997</v>
+        <v>2656.3032421874991</v>
       </c>
       <c r="E15" s="20">
         <f t="shared" si="3"/>
-        <v>12.597119999999999</v>
+        <v>1593.7819453124998</v>
       </c>
       <c r="F15" s="20">
         <f t="shared" si="4"/>
@@ -1655,7 +1654,7 @@
       </c>
       <c r="P15" s="22">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q15" s="22">
         <f t="shared" si="10"/>
@@ -1674,11 +1673,11 @@
       </c>
       <c r="D16" s="20">
         <f t="shared" si="2"/>
-        <v>30.233087999999995</v>
+        <v>3054.748728515624</v>
       </c>
       <c r="E16" s="20">
         <f t="shared" si="3"/>
-        <v>15.116543999999998</v>
+        <v>1832.8492371093746</v>
       </c>
       <c r="F16" s="20">
         <f t="shared" si="4"/>
@@ -1717,7 +1716,7 @@
       </c>
       <c r="P16" s="22">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q16" s="22">
         <f t="shared" si="10"/>
@@ -1736,11 +1735,11 @@
       </c>
       <c r="D17" s="20">
         <f t="shared" ref="D17:D31" si="13">D16*P17</f>
-        <v>36.279705599999993</v>
+        <v>3512.9610377929671</v>
       </c>
       <c r="E17" s="20">
         <f t="shared" ref="E17:E31" si="14">E16*P17</f>
-        <v>18.139852799999996</v>
+        <v>2107.7766226757808</v>
       </c>
       <c r="F17" s="20">
         <f t="shared" si="4"/>
@@ -1779,7 +1778,7 @@
       </c>
       <c r="P17" s="22">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q17" s="22">
         <f t="shared" si="10"/>
@@ -1798,11 +1797,11 @@
       </c>
       <c r="D18" s="20">
         <f t="shared" si="13"/>
-        <v>43.535646719999988</v>
+        <v>4039.9051934619119</v>
       </c>
       <c r="E18" s="20">
         <f t="shared" si="14"/>
-        <v>21.767823359999994</v>
+        <v>2423.9431160771478</v>
       </c>
       <c r="F18" s="20">
         <f t="shared" si="4"/>
@@ -1841,7 +1840,7 @@
       </c>
       <c r="P18" s="22">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q18" s="22">
         <f t="shared" si="10"/>
@@ -1860,11 +1859,11 @@
       </c>
       <c r="D19" s="20">
         <f t="shared" si="13"/>
-        <v>52.242776063999983</v>
+        <v>4645.8909724811983</v>
       </c>
       <c r="E19" s="20">
         <f t="shared" si="14"/>
-        <v>26.121388031999992</v>
+        <v>2787.5345834887198</v>
       </c>
       <c r="F19" s="20">
         <f t="shared" si="4"/>
@@ -1903,7 +1902,7 @@
       </c>
       <c r="P19" s="22">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q19" s="22">
         <f t="shared" si="10"/>
@@ -1922,11 +1921,11 @@
       </c>
       <c r="D20" s="20">
         <f t="shared" si="13"/>
-        <v>62.691331276799978</v>
+        <v>5342.7746183533773</v>
       </c>
       <c r="E20" s="20">
         <f t="shared" si="14"/>
-        <v>31.345665638399989</v>
+        <v>3205.6647710120274</v>
       </c>
       <c r="F20" s="20">
         <f t="shared" si="4"/>
@@ -1965,7 +1964,7 @@
       </c>
       <c r="P20" s="22">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q20" s="22">
         <f t="shared" si="10"/>
@@ -1984,11 +1983,11 @@
       </c>
       <c r="D21" s="20">
         <f t="shared" si="13"/>
-        <v>75.229597532159971</v>
+        <v>6144.1908111063831</v>
       </c>
       <c r="E21" s="20">
         <f t="shared" si="14"/>
-        <v>37.614798766079986</v>
+        <v>3686.5144866638311</v>
       </c>
       <c r="F21" s="20">
         <f t="shared" si="4"/>
@@ -2027,7 +2026,7 @@
       </c>
       <c r="P21" s="22">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q21" s="22">
         <f t="shared" si="10"/>
@@ -2046,11 +2045,11 @@
       </c>
       <c r="D22" s="21">
         <f t="shared" si="13"/>
-        <v>90.275517038591957</v>
+        <v>7065.8194327723404</v>
       </c>
       <c r="E22" s="21">
         <f t="shared" si="14"/>
-        <v>45.137758519295978</v>
+        <v>4239.4916596634057</v>
       </c>
       <c r="F22" s="21">
         <f t="shared" si="4"/>
@@ -2088,7 +2087,7 @@
       </c>
       <c r="P22" s="23">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q22" s="23">
         <f t="shared" si="10"/>
@@ -2107,11 +2106,11 @@
       </c>
       <c r="D23" s="21">
         <f t="shared" si="13"/>
-        <v>108.33062044631035</v>
+        <v>8125.6923476881911</v>
       </c>
       <c r="E23" s="21">
         <f t="shared" si="14"/>
-        <v>54.165310223155174</v>
+        <v>4875.4154086129165</v>
       </c>
       <c r="F23" s="21">
         <f t="shared" si="4"/>
@@ -2150,7 +2149,7 @@
       </c>
       <c r="P23" s="22">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q23" s="22">
         <f t="shared" si="10"/>
@@ -2169,11 +2168,11 @@
       </c>
       <c r="D24" s="21">
         <f t="shared" si="13"/>
-        <v>129.99674453557242</v>
+        <v>9344.5461998414194</v>
       </c>
       <c r="E24" s="21">
         <f t="shared" si="14"/>
-        <v>64.998372267786209</v>
+        <v>5606.727719904854</v>
       </c>
       <c r="F24" s="21">
         <f t="shared" si="4"/>
@@ -2212,7 +2211,7 @@
       </c>
       <c r="P24" s="22">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q24" s="22">
         <f t="shared" si="10"/>
@@ -2231,11 +2230,11 @@
       </c>
       <c r="D25" s="21">
         <f t="shared" si="13"/>
-        <v>155.99609344268688</v>
+        <v>10746.228129817631</v>
       </c>
       <c r="E25" s="21">
         <f t="shared" si="14"/>
-        <v>77.998046721343442</v>
+        <v>6447.736877890582</v>
       </c>
       <c r="F25" s="21">
         <f t="shared" si="4"/>
@@ -2274,7 +2273,7 @@
       </c>
       <c r="P25" s="22">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q25" s="22">
         <f t="shared" si="10"/>
@@ -2293,11 +2292,11 @@
       </c>
       <c r="D26" s="21">
         <f t="shared" si="13"/>
-        <v>187.19531213122426</v>
+        <v>12358.162349290275</v>
       </c>
       <c r="E26" s="21">
         <f t="shared" si="14"/>
-        <v>93.597656065612128</v>
+        <v>7414.8974095741687</v>
       </c>
       <c r="F26" s="21">
         <f t="shared" si="4"/>
@@ -2336,7 +2335,7 @@
       </c>
       <c r="P26" s="22">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q26" s="22">
         <f t="shared" si="10"/>
@@ -2355,11 +2354,11 @@
       </c>
       <c r="D27" s="21">
         <f t="shared" si="13"/>
-        <v>224.6343745574691</v>
+        <v>14211.886701683814</v>
       </c>
       <c r="E27" s="21">
         <f t="shared" si="14"/>
-        <v>112.31718727873455</v>
+        <v>8527.1320210102931</v>
       </c>
       <c r="F27" s="21">
         <f t="shared" si="4"/>
@@ -2398,7 +2397,7 @@
       </c>
       <c r="P27" s="22">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q27" s="22">
         <f t="shared" si="10"/>
@@ -2417,11 +2416,11 @@
       </c>
       <c r="D28" s="21">
         <f t="shared" si="13"/>
-        <v>269.5612494689629</v>
+        <v>16343.669706936385</v>
       </c>
       <c r="E28" s="21">
         <f t="shared" si="14"/>
-        <v>134.78062473448145</v>
+        <v>9806.2018241618371</v>
       </c>
       <c r="F28" s="21">
         <f t="shared" si="4"/>
@@ -2460,7 +2459,7 @@
       </c>
       <c r="P28" s="22">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q28" s="22">
         <f t="shared" si="10"/>
@@ -2479,11 +2478,11 @@
       </c>
       <c r="D29" s="21">
         <f t="shared" si="13"/>
-        <v>323.47349936275549</v>
+        <v>18795.220162976842</v>
       </c>
       <c r="E29" s="21">
         <f t="shared" si="14"/>
-        <v>161.73674968137774</v>
+        <v>11277.132097786112</v>
       </c>
       <c r="F29" s="21">
         <f t="shared" si="4"/>
@@ -2522,7 +2521,7 @@
       </c>
       <c r="P29" s="22">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q29" s="22">
         <f t="shared" si="10"/>
@@ -2541,11 +2540,11 @@
       </c>
       <c r="D30" s="21">
         <f t="shared" si="13"/>
-        <v>388.16819923530659</v>
+        <v>21614.503187423368</v>
       </c>
       <c r="E30" s="21">
         <f t="shared" si="14"/>
-        <v>194.08409961765329</v>
+        <v>12968.701912454027</v>
       </c>
       <c r="F30" s="21">
         <f t="shared" si="4"/>
@@ -2584,7 +2583,7 @@
       </c>
       <c r="P30" s="22">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q30" s="22">
         <f t="shared" si="10"/>
@@ -2603,11 +2602,11 @@
       </c>
       <c r="D31" s="21">
         <f t="shared" si="13"/>
-        <v>465.80183908236791</v>
+        <v>24856.678665536871</v>
       </c>
       <c r="E31" s="21">
         <f t="shared" si="14"/>
-        <v>232.90091954118395</v>
+        <v>14914.00719932213</v>
       </c>
       <c r="F31" s="21">
         <f t="shared" si="4"/>
@@ -2646,7 +2645,7 @@
       </c>
       <c r="P31" s="22">
         <f t="shared" si="9"/>
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Q31" s="22">
         <f t="shared" si="10"/>
@@ -2665,11 +2664,11 @@
       </c>
       <c r="D32" s="14">
         <f t="shared" ref="D32:D41" si="15">D31*P32</f>
-        <v>605.54239080707828</v>
+        <v>31070.848331921086</v>
       </c>
       <c r="E32" s="14">
         <f t="shared" ref="E32:E41" si="16">E31*P32</f>
-        <v>302.77119540353914</v>
+        <v>18642.508999152662</v>
       </c>
       <c r="F32" s="14">
         <f t="shared" si="4"/>
@@ -2706,7 +2705,7 @@
         <v>1.07</v>
       </c>
       <c r="P32" s="23">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q32" s="23">
         <v>1.1000000000000001</v>
@@ -2724,11 +2723,11 @@
       </c>
       <c r="D33" s="14">
         <f t="shared" si="15"/>
-        <v>787.20510804920184</v>
+        <v>38838.56041490136</v>
       </c>
       <c r="E33" s="14">
         <f t="shared" si="16"/>
-        <v>393.60255402460092</v>
+        <v>23303.136248940827</v>
       </c>
       <c r="F33" s="14">
         <f t="shared" si="4"/>
@@ -2767,7 +2766,7 @@
       </c>
       <c r="P33" s="22">
         <f>P32</f>
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q33" s="22">
         <f>Q32</f>
@@ -2786,11 +2785,11 @@
       </c>
       <c r="D34" s="14">
         <f t="shared" si="15"/>
-        <v>1023.3666404639624</v>
+        <v>48548.200518626698</v>
       </c>
       <c r="E34" s="14">
         <f t="shared" si="16"/>
-        <v>511.68332023198121</v>
+        <v>29128.920311176036</v>
       </c>
       <c r="F34" s="14">
         <f t="shared" si="4"/>
@@ -2829,7 +2828,7 @@
       </c>
       <c r="P34" s="22">
         <f>P33</f>
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q34" s="22">
         <f>Q33</f>
@@ -2848,11 +2847,11 @@
       </c>
       <c r="D35" s="14">
         <f t="shared" si="15"/>
-        <v>1330.3766326031512</v>
+        <v>60685.250648283371</v>
       </c>
       <c r="E35" s="14">
         <f t="shared" si="16"/>
-        <v>665.18831630157558</v>
+        <v>36411.150388970047</v>
       </c>
       <c r="F35" s="14">
         <f t="shared" si="4"/>
@@ -2891,7 +2890,7 @@
       </c>
       <c r="P35" s="22">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q35" s="22">
         <f t="shared" si="10"/>
@@ -2910,11 +2909,11 @@
       </c>
       <c r="D36" s="14">
         <f t="shared" si="15"/>
-        <v>1729.4896223840965</v>
+        <v>75856.56331035422</v>
       </c>
       <c r="E36" s="14">
         <f t="shared" si="16"/>
-        <v>864.74481119204825</v>
+        <v>45513.937986212557</v>
       </c>
       <c r="F36" s="14">
         <f t="shared" si="4"/>
@@ -2953,7 +2952,7 @@
       </c>
       <c r="P36" s="22">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q36" s="22">
         <f t="shared" si="10"/>
@@ -2972,11 +2971,11 @@
       </c>
       <c r="D37" s="14">
         <f t="shared" si="15"/>
-        <v>2248.3365090993257</v>
+        <v>94820.704137942783</v>
       </c>
       <c r="E37" s="14">
         <f t="shared" si="16"/>
-        <v>1124.1682545496628</v>
+        <v>56892.422482765694</v>
       </c>
       <c r="F37" s="14">
         <f t="shared" ref="F37:F61" si="23">F36*Q37</f>
@@ -3015,7 +3014,7 @@
       </c>
       <c r="P37" s="22">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q37" s="22">
         <f t="shared" si="10"/>
@@ -3034,11 +3033,11 @@
       </c>
       <c r="D38" s="14">
         <f t="shared" si="15"/>
-        <v>2922.8374618291236</v>
+        <v>118525.88017242847</v>
       </c>
       <c r="E38" s="14">
         <f t="shared" si="16"/>
-        <v>1461.4187309145618</v>
+        <v>71115.528103457124</v>
       </c>
       <c r="F38" s="14">
         <f t="shared" si="23"/>
@@ -3077,7 +3076,7 @@
       </c>
       <c r="P38" s="22">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q38" s="22">
         <f t="shared" si="10"/>
@@ -3096,11 +3095,11 @@
       </c>
       <c r="D39" s="14">
         <f t="shared" si="15"/>
-        <v>3799.6887003778606</v>
+        <v>148157.35021553558</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" si="16"/>
-        <v>1899.8443501889303</v>
+        <v>88894.410129321404</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" si="23"/>
@@ -3139,7 +3138,7 @@
       </c>
       <c r="P39" s="22">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q39" s="22">
         <f t="shared" si="10"/>
@@ -3158,11 +3157,11 @@
       </c>
       <c r="D40" s="14">
         <f t="shared" si="15"/>
-        <v>4939.5953104912187</v>
+        <v>185196.68776941948</v>
       </c>
       <c r="E40" s="14">
         <f t="shared" si="16"/>
-        <v>2469.7976552456093</v>
+        <v>111118.01266165175</v>
       </c>
       <c r="F40" s="14">
         <f t="shared" si="23"/>
@@ -3201,7 +3200,7 @@
       </c>
       <c r="P40" s="22">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q40" s="22">
         <f t="shared" si="10"/>
@@ -3220,11 +3219,11 @@
       </c>
       <c r="D41" s="14">
         <f t="shared" si="15"/>
-        <v>6421.4739036385845</v>
+        <v>231495.85971177436</v>
       </c>
       <c r="E41" s="14">
         <f t="shared" si="16"/>
-        <v>3210.7369518192922</v>
+        <v>138897.51582706469</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" si="23"/>
@@ -3263,7 +3262,7 @@
       </c>
       <c r="P41" s="22">
         <f t="shared" si="9"/>
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q41" s="22">
         <f t="shared" si="10"/>
@@ -3282,11 +3281,11 @@
       </c>
       <c r="D42" s="15">
         <f t="shared" ref="D42:D51" si="24">D41*P42</f>
-        <v>8990.0634650940174</v>
+        <v>300944.61762530671</v>
       </c>
       <c r="E42" s="15">
         <f t="shared" ref="E42:E51" si="25">E41*P42</f>
-        <v>4495.0317325470087</v>
+        <v>180566.77057518411</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="23"/>
@@ -3323,7 +3322,7 @@
         <v>1.06</v>
       </c>
       <c r="P42" s="23">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q42" s="23">
         <f t="shared" si="10"/>
@@ -3342,11 +3341,11 @@
       </c>
       <c r="D43" s="15">
         <f t="shared" si="24"/>
-        <v>12586.088851131624</v>
+        <v>391228.00291289872</v>
       </c>
       <c r="E43" s="15">
         <f t="shared" si="25"/>
-        <v>6293.0444255658122</v>
+        <v>234736.80174773934</v>
       </c>
       <c r="F43" s="15">
         <f t="shared" si="23"/>
@@ -3385,7 +3384,7 @@
       </c>
       <c r="P43" s="22">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q43" s="22">
         <f t="shared" si="10"/>
@@ -3404,11 +3403,11 @@
       </c>
       <c r="D44" s="15">
         <f t="shared" si="24"/>
-        <v>17620.524391584273</v>
+        <v>508596.40378676838</v>
       </c>
       <c r="E44" s="15">
         <f t="shared" si="25"/>
-        <v>8810.2621957921365</v>
+        <v>305157.84227206116</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="23"/>
@@ -3447,7 +3446,7 @@
       </c>
       <c r="P44" s="22">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q44" s="22">
         <f t="shared" si="10"/>
@@ -3466,11 +3465,11 @@
       </c>
       <c r="D45" s="15">
         <f t="shared" si="24"/>
-        <v>24668.73414821798</v>
+        <v>661175.3249227989</v>
       </c>
       <c r="E45" s="15">
         <f t="shared" si="25"/>
-        <v>12334.36707410899</v>
+        <v>396705.19495367951</v>
       </c>
       <c r="F45" s="15">
         <f t="shared" si="23"/>
@@ -3509,7 +3508,7 @@
       </c>
       <c r="P45" s="22">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q45" s="22">
         <f t="shared" si="10"/>
@@ -3528,11 +3527,11 @@
       </c>
       <c r="D46" s="15">
         <f t="shared" si="24"/>
-        <v>34536.227807505173</v>
+        <v>859527.92239963857</v>
       </c>
       <c r="E46" s="15">
         <f t="shared" si="25"/>
-        <v>17268.113903752586</v>
+        <v>515716.75343978341</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="23"/>
@@ -3571,7 +3570,7 @@
       </c>
       <c r="P46" s="22">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q46" s="22">
         <f t="shared" si="10"/>
@@ -3590,11 +3589,11 @@
       </c>
       <c r="D47" s="15">
         <f t="shared" si="24"/>
-        <v>48350.718930507239</v>
+        <v>1117386.2991195302</v>
       </c>
       <c r="E47" s="15">
         <f t="shared" si="25"/>
-        <v>24175.359465253619</v>
+        <v>670431.77947171847</v>
       </c>
       <c r="F47" s="15">
         <f t="shared" si="23"/>
@@ -3633,7 +3632,7 @@
       </c>
       <c r="P47" s="22">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q47" s="22">
         <f t="shared" si="10"/>
@@ -3652,11 +3651,11 @@
       </c>
       <c r="D48" s="15">
         <f t="shared" si="24"/>
-        <v>67691.006502710137</v>
+        <v>1452602.1888553894</v>
       </c>
       <c r="E48" s="15">
         <f t="shared" si="25"/>
-        <v>33845.503251355069</v>
+        <v>871561.31331323402</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="23"/>
@@ -3695,7 +3694,7 @@
       </c>
       <c r="P48" s="22">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q48" s="22">
         <f t="shared" si="10"/>
@@ -3714,11 +3713,11 @@
       </c>
       <c r="D49" s="15">
         <f t="shared" si="24"/>
-        <v>94767.409103794183</v>
+        <v>1888382.8455120062</v>
       </c>
       <c r="E49" s="15">
         <f t="shared" si="25"/>
-        <v>47383.704551897092</v>
+        <v>1133029.7073072044</v>
       </c>
       <c r="F49" s="15">
         <f t="shared" si="23"/>
@@ -3757,7 +3756,7 @@
       </c>
       <c r="P49" s="22">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q49" s="22">
         <f t="shared" si="10"/>
@@ -3776,11 +3775,11 @@
       </c>
       <c r="D50" s="15">
         <f t="shared" si="24"/>
-        <v>132674.37274531185</v>
+        <v>2454897.6991656083</v>
       </c>
       <c r="E50" s="15">
         <f t="shared" si="25"/>
-        <v>66337.186372655924</v>
+        <v>1472938.6194993658</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="23"/>
@@ -3819,7 +3818,7 @@
       </c>
       <c r="P50" s="22">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q50" s="22">
         <f t="shared" si="10"/>
@@ -3838,11 +3837,11 @@
       </c>
       <c r="D51" s="15">
         <f t="shared" si="24"/>
-        <v>185744.12184343659</v>
+        <v>3191367.0089152907</v>
       </c>
       <c r="E51" s="15">
         <f t="shared" si="25"/>
-        <v>92872.060921718294</v>
+        <v>1914820.2053491755</v>
       </c>
       <c r="F51" s="15">
         <f t="shared" si="23"/>
@@ -3881,7 +3880,7 @@
       </c>
       <c r="P51" s="22">
         <f t="shared" si="9"/>
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q51" s="22">
         <f t="shared" si="10"/>
@@ -3900,11 +3899,11 @@
       </c>
       <c r="D52" s="16">
         <f t="shared" ref="D52:D61" si="31">D51*P52</f>
-        <v>278616.18276515487</v>
+        <v>4308345.4620356429</v>
       </c>
       <c r="E52" s="16">
         <f t="shared" ref="E52:E61" si="32">E51*P52</f>
-        <v>139308.09138257743</v>
+        <v>2585007.2772213873</v>
       </c>
       <c r="F52" s="16">
         <f t="shared" si="23"/>
@@ -3941,7 +3940,7 @@
         <v>1.05</v>
       </c>
       <c r="P52" s="23">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="Q52" s="23">
         <v>1.05</v>
@@ -3959,11 +3958,11 @@
       </c>
       <c r="D53" s="16">
         <f t="shared" si="31"/>
-        <v>417924.2741477323</v>
+        <v>5816266.3737481181</v>
       </c>
       <c r="E53" s="16">
         <f t="shared" si="32"/>
-        <v>208962.13707386615</v>
+        <v>3489759.8242488732</v>
       </c>
       <c r="F53" s="16">
         <f t="shared" si="23"/>
@@ -4002,7 +4001,7 @@
       </c>
       <c r="P53" s="22">
         <f t="shared" si="9"/>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="Q53" s="22">
         <f t="shared" si="10"/>
@@ -4021,11 +4020,11 @@
       </c>
       <c r="D54" s="16">
         <f t="shared" si="31"/>
-        <v>626886.41122159851</v>
+        <v>7851959.6045599598</v>
       </c>
       <c r="E54" s="16">
         <f t="shared" si="32"/>
-        <v>313443.20561079925</v>
+        <v>4711175.7627359787</v>
       </c>
       <c r="F54" s="16">
         <f t="shared" si="23"/>
@@ -4064,7 +4063,7 @@
       </c>
       <c r="P54" s="22">
         <f t="shared" si="9"/>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="Q54" s="22">
         <f t="shared" si="10"/>
@@ -4083,11 +4082,11 @@
       </c>
       <c r="D55" s="16">
         <f t="shared" si="31"/>
-        <v>940329.61683239776</v>
+        <v>10600145.466155946</v>
       </c>
       <c r="E55" s="16">
         <f t="shared" si="32"/>
-        <v>470164.80841619888</v>
+        <v>6360087.2796935719</v>
       </c>
       <c r="F55" s="16">
         <f t="shared" si="23"/>
@@ -4126,7 +4125,7 @@
       </c>
       <c r="P55" s="22">
         <f t="shared" si="9"/>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="Q55" s="22">
         <f t="shared" si="10"/>
@@ -4145,11 +4144,11 @@
       </c>
       <c r="D56" s="16">
         <f t="shared" si="31"/>
-        <v>1410494.4252485966</v>
+        <v>14310196.379310528</v>
       </c>
       <c r="E56" s="16">
         <f t="shared" si="32"/>
-        <v>705247.21262429829</v>
+        <v>8586117.827586323</v>
       </c>
       <c r="F56" s="16">
         <f t="shared" si="23"/>
@@ -4188,7 +4187,7 @@
       </c>
       <c r="P56" s="22">
         <f t="shared" si="9"/>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="Q56" s="22">
         <f t="shared" si="10"/>
@@ -4207,11 +4206,11 @@
       </c>
       <c r="D57" s="16">
         <f t="shared" si="31"/>
-        <v>2115741.6378728948</v>
+        <v>19318765.112069216</v>
       </c>
       <c r="E57" s="16">
         <f t="shared" si="32"/>
-        <v>1057870.8189364474</v>
+        <v>11591259.067241536</v>
       </c>
       <c r="F57" s="16">
         <f t="shared" si="23"/>
@@ -4250,7 +4249,7 @@
       </c>
       <c r="P57" s="22">
         <f t="shared" si="9"/>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="Q57" s="22">
         <f t="shared" si="10"/>
@@ -4269,11 +4268,11 @@
       </c>
       <c r="D58" s="16">
         <f t="shared" si="31"/>
-        <v>3173612.4568093419</v>
+        <v>26080332.901293442</v>
       </c>
       <c r="E58" s="16">
         <f t="shared" si="32"/>
-        <v>1586806.228404671</v>
+        <v>15648199.740776075</v>
       </c>
       <c r="F58" s="16">
         <f t="shared" si="23"/>
@@ -4312,7 +4311,7 @@
       </c>
       <c r="P58" s="22">
         <f t="shared" si="9"/>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="Q58" s="22">
         <f t="shared" si="10"/>
@@ -4331,11 +4330,11 @@
       </c>
       <c r="D59" s="16">
         <f t="shared" si="31"/>
-        <v>4760418.6852140129</v>
+        <v>35208449.416746147</v>
       </c>
       <c r="E59" s="16">
         <f t="shared" si="32"/>
-        <v>2380209.3426070064</v>
+        <v>21125069.650047701</v>
       </c>
       <c r="F59" s="16">
         <f t="shared" si="23"/>
@@ -4374,7 +4373,7 @@
       </c>
       <c r="P59" s="22">
         <f t="shared" si="9"/>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="Q59" s="22">
         <f t="shared" si="10"/>
@@ -4393,11 +4392,11 @@
       </c>
       <c r="D60" s="16">
         <f t="shared" si="31"/>
-        <v>7140628.0278210193</v>
+        <v>47531406.712607302</v>
       </c>
       <c r="E60" s="16">
         <f t="shared" si="32"/>
-        <v>3570314.0139105096</v>
+        <v>28518844.027564399</v>
       </c>
       <c r="F60" s="16">
         <f t="shared" si="23"/>
@@ -4436,7 +4435,7 @@
       </c>
       <c r="P60" s="22">
         <f t="shared" si="9"/>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="Q60" s="22">
         <f t="shared" si="10"/>
@@ -4455,11 +4454,11 @@
       </c>
       <c r="D61" s="16">
         <f t="shared" si="31"/>
-        <v>10710942.041731529</v>
+        <v>64167399.062019862</v>
       </c>
       <c r="E61" s="16">
         <f t="shared" si="32"/>
-        <v>5355471.0208657645</v>
+        <v>38500439.437211938</v>
       </c>
       <c r="F61" s="16">
         <f t="shared" si="23"/>
@@ -4498,7 +4497,7 @@
       </c>
       <c r="P61" s="22">
         <f t="shared" si="9"/>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="Q61" s="22">
         <f t="shared" si="10"/>
